--- a/$SPOT.xlsx
+++ b/$SPOT.xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8FC0CC-CFF2-4298-8753-4CD1ACD23DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85210E5C-5324-48BB-B3E8-8F45FFD55A61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1260" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{1B36FFFD-D458-4A57-865C-CCAC07CF1B21}"/>
+    <workbookView xWindow="1635" yWindow="1260" windowWidth="27165" windowHeight="14100" xr2:uid="{1B36FFFD-D458-4A57-865C-CCAC07CF1B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Visualisation" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
   <si>
     <t>$SPOT</t>
   </si>
@@ -82,9 +74,6 @@
     <t>CTO</t>
   </si>
   <si>
-    <t>Chair</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
@@ -97,9 +86,6 @@
     <t>IPO</t>
   </si>
   <si>
-    <t>DAU</t>
-  </si>
-  <si>
     <t>Employ.</t>
   </si>
   <si>
@@ -202,12 +188,6 @@
     <t>Non-Finance Metrics</t>
   </si>
   <si>
-    <t>Non-Pay DAU</t>
-  </si>
-  <si>
-    <t>Subscriber DAU</t>
-  </si>
-  <si>
     <t>MAU</t>
   </si>
   <si>
@@ -398,6 +378,66 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Subscriber MAU</t>
+  </si>
+  <si>
+    <t>Ad-Supported MAU</t>
+  </si>
+  <si>
+    <t>Premium ARPU (EUR)</t>
+  </si>
+  <si>
+    <t>MAU Y/Y</t>
+  </si>
+  <si>
+    <t>Subscriber MAU Y/Y</t>
+  </si>
+  <si>
+    <t>Ad-Supported MAU Y/Y</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Ad-Supported</t>
+  </si>
+  <si>
+    <t>Daniel Ek</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>Martin Lorentzon</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>CoFounder</t>
+  </si>
+  <si>
+    <t>Paul Vogel</t>
+  </si>
+  <si>
+    <t>Gustav Soderstrom</t>
+  </si>
+  <si>
+    <t>Content Production</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>General &amp; Administrative</t>
+  </si>
+  <si>
+    <t>Employees Y/Y</t>
   </si>
 </sst>
 </file>
@@ -407,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +500,26 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -583,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,33 +705,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,6 +716,51 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,7 +858,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -824,11 +902,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Currencies"/>
@@ -1144,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F128B0A2-1082-4847-9887-54638A561483}">
-  <dimension ref="B2:Q40"/>
+  <dimension ref="A2:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,37 +1230,37 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="G5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="G5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1280,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1303,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1249,12 +1324,12 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="17">
-        <f>'Financial Model'!P70</f>
+        <f>'Financial Model'!P79</f>
         <v>7329</v>
       </c>
       <c r="D9" s="15" t="str">
@@ -1273,12 +1348,12 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="17">
-        <f>'Financial Model'!P71</f>
+        <f>'Financial Model'!P80</f>
         <v>1370</v>
       </c>
       <c r="D10" s="15" t="str">
@@ -1289,7 +1364,7 @@
         <v>45566</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1301,7 +1376,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1400,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1421,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G13" s="13"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1359,7 +1434,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G14" s="13"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1372,12 +1447,12 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1390,12 +1465,17 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="43"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1408,12 +1488,14 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="43"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1426,12 +1508,14 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="43"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1444,12 +1528,17 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="41"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1462,7 +1551,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G20" s="13"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1475,7 +1564,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G21" s="13"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1488,12 +1577,12 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="G22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1506,14 +1595,14 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="43"/>
       <c r="G23" s="13"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1526,14 +1615,14 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="36">
+        <v>16</v>
+      </c>
+      <c r="C24" s="42">
         <v>2006</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="43"/>
       <c r="G24" s="13"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1546,12 +1635,14 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="C25" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="43"/>
       <c r="G25" s="13"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1564,10 +1655,10 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1580,12 +1671,15 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="C27" s="42">
+        <f>+'Financial Model'!P30</f>
+        <v>626</v>
+      </c>
+      <c r="D27" s="43"/>
       <c r="G27" s="13"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1598,12 +1692,15 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="C28" s="51">
+        <f>+'Financial Model'!AA42</f>
+        <v>9123</v>
+      </c>
+      <c r="D28" s="43"/>
       <c r="G28" s="13"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1616,10 +1713,10 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="G29" s="13"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1632,14 +1729,14 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="40">
+        <v>24</v>
+      </c>
+      <c r="D30" s="31">
         <v>45480</v>
       </c>
       <c r="G30" s="13"/>
@@ -1654,12 +1751,12 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
       <c r="G31" s="14"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -1673,73 +1770,69 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" s="38">
-        <f>C6/('Financial Model'!P17*[1]Currencies!$C$4)</f>
+        <f>C6/('Financial Model'!P19*[1]Currencies!$C$4)</f>
         <v>1.8383569335605636</v>
       </c>
       <c r="D35" s="39"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C36" s="38">
-        <f>C8/(SUM('Financial Model'!M6:P6)*[1]Currencies!$C$4)</f>
+        <f>C8/(SUM('Financial Model'!M8:P8)*[1]Currencies!$C$4)</f>
         <v>18.559875002592591</v>
       </c>
       <c r="D36" s="39"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="38">
-        <f>C6/(SUM('Financial Model'!M16:P16)*[1]Currencies!$C$4)</f>
+        <f>C6/(SUM('Financial Model'!M18:P18)*[1]Currencies!$C$4)</f>
         <v>157.14824811618186</v>
       </c>
       <c r="D38" s="39"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C40" s="38">
-        <f>C6/('Financial Model'!P90*[1]Currencies!$C$4)</f>
+        <f>C6/('Financial Model'!P99*[1]Currencies!$C$4)</f>
         <v>150.00868945321099</v>
       </c>
       <c r="D40" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
+  <mergeCells count="21">
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C25:D25"/>
@@ -1753,6 +1846,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1761,13 +1861,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D2AD3C-DB9E-4895-A895-31060AA5F6CC}">
-  <dimension ref="B1:AH91"/>
+  <dimension ref="B1:AH100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1778,102 +1878,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
-        <v>118</v>
+      <c r="B1" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="V1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="AA1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AE1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
+      <c r="C2" s="23">
+        <v>44561</v>
+      </c>
+      <c r="D2" s="23">
+        <v>44377</v>
+      </c>
+      <c r="E2" s="23">
+        <v>44469</v>
+      </c>
+      <c r="F2" s="23">
+        <f>+Y2</f>
+        <v>44561</v>
+      </c>
+      <c r="G2" s="23">
+        <v>44926</v>
+      </c>
+      <c r="H2" s="23">
+        <v>44742</v>
+      </c>
       <c r="I2" s="23">
         <v>44834</v>
       </c>
+      <c r="J2" s="23">
+        <f>+Z2</f>
+        <v>44926</v>
+      </c>
       <c r="K2" s="23">
         <v>45016</v>
       </c>
@@ -1904,1407 +2027,2530 @@
     </row>
     <row r="3" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
-      <c r="M3" s="41">
+      <c r="G3" s="32">
+        <v>45402</v>
+      </c>
+      <c r="H3" s="32">
+        <v>45500</v>
+      </c>
+      <c r="M3" s="32">
         <v>45590</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="32">
         <v>45330</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="32">
         <v>45406</v>
       </c>
       <c r="P3" s="24">
         <v>45474</v>
       </c>
-      <c r="AA3" s="41">
+      <c r="AA3" s="32">
         <v>45330</v>
       </c>
     </row>
-    <row r="4" spans="2:34" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="26">
-        <v>3036</v>
-      </c>
-      <c r="K4" s="26">
-        <v>3042</v>
-      </c>
-      <c r="L4" s="26">
-        <v>3177</v>
-      </c>
-      <c r="M4" s="26">
-        <v>3357</v>
-      </c>
-      <c r="N4" s="26">
-        <f>AA4-SUM(K4:M4)</f>
-        <v>3671</v>
-      </c>
-      <c r="O4" s="26">
-        <v>3636</v>
-      </c>
-      <c r="P4" s="26">
-        <v>3807</v>
-      </c>
-      <c r="Y4" s="26">
-        <v>9668</v>
-      </c>
-      <c r="Z4" s="26">
-        <v>11727</v>
-      </c>
-      <c r="AA4" s="26">
-        <v>13247</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="17">
-        <v>2286</v>
-      </c>
-      <c r="K5" s="17">
-        <v>2276</v>
-      </c>
-      <c r="L5" s="17">
-        <v>2411</v>
-      </c>
-      <c r="M5" s="17">
-        <v>2472</v>
-      </c>
-      <c r="N5" s="17">
-        <f>AA5-SUM(K5:M5)</f>
-        <v>2691</v>
-      </c>
-      <c r="O5" s="17">
-        <v>2632</v>
-      </c>
-      <c r="P5" s="17">
-        <v>2695</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>7077</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>8801</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>9850</v>
+    <row r="4" spans="2:34" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1931</v>
+      </c>
+      <c r="D4" s="47">
+        <v>2056</v>
+      </c>
+      <c r="E4" s="47">
+        <v>2178</v>
+      </c>
+      <c r="F4" s="47">
+        <f>+Y4-SUM(C4:E4)</f>
+        <v>2295</v>
+      </c>
+      <c r="G4" s="47">
+        <v>2379</v>
+      </c>
+      <c r="H4" s="47">
+        <v>2504</v>
+      </c>
+      <c r="I4" s="47">
+        <v>2651</v>
+      </c>
+      <c r="J4" s="47">
+        <f>+Z4-SUM(G4:I4)</f>
+        <v>2717</v>
+      </c>
+      <c r="K4" s="47">
+        <v>2713</v>
+      </c>
+      <c r="L4" s="47">
+        <v>2773</v>
+      </c>
+      <c r="M4" s="47">
+        <v>2910</v>
+      </c>
+      <c r="N4" s="47">
+        <f>+AA4-SUM(K4:M4)</f>
+        <v>3170</v>
+      </c>
+      <c r="O4" s="47">
+        <v>3247</v>
+      </c>
+      <c r="P4" s="47">
+        <v>3351</v>
+      </c>
+      <c r="Y4" s="47">
+        <v>8460</v>
+      </c>
+      <c r="Z4" s="47">
+        <v>10251</v>
+      </c>
+      <c r="AA4" s="47">
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="47">
+        <v>216</v>
+      </c>
+      <c r="D5" s="47">
+        <v>275</v>
+      </c>
+      <c r="E5" s="47">
+        <v>323</v>
+      </c>
+      <c r="F5" s="47">
+        <f>+Y5-SUM(C5:E5)</f>
+        <v>394</v>
+      </c>
+      <c r="G5" s="47">
+        <v>282</v>
+      </c>
+      <c r="H5" s="47">
+        <v>360</v>
+      </c>
+      <c r="I5" s="47">
+        <v>385</v>
+      </c>
+      <c r="J5" s="47">
+        <f>+Z5-SUM(G5:I5)</f>
+        <v>449</v>
+      </c>
+      <c r="K5" s="47">
+        <v>329</v>
+      </c>
+      <c r="L5" s="47">
+        <v>404</v>
+      </c>
+      <c r="M5" s="47">
+        <v>447</v>
+      </c>
+      <c r="N5" s="47">
+        <f>+AA5-SUM(K5:M5)</f>
+        <v>501</v>
+      </c>
+      <c r="O5" s="47">
+        <v>389</v>
+      </c>
+      <c r="P5" s="47">
+        <v>456</v>
+      </c>
+      <c r="Y5" s="47">
+        <v>1208</v>
+      </c>
+      <c r="Z5" s="47">
+        <v>1476</v>
+      </c>
+      <c r="AA5" s="47">
+        <v>1681</v>
       </c>
     </row>
     <row r="6" spans="2:34" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2147</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2331</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2501</v>
+      </c>
+      <c r="F6" s="26">
+        <f>+Y6-SUM(C6:E6)</f>
+        <v>2689</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2661</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2864</v>
       </c>
       <c r="I6" s="26">
-        <f>I4-I5</f>
-        <v>750</v>
+        <v>3036</v>
+      </c>
+      <c r="J6" s="26">
+        <f>+J4+J5</f>
+        <v>3166</v>
       </c>
       <c r="K6" s="26">
-        <f>K4-K5</f>
-        <v>766</v>
+        <v>3042</v>
       </c>
       <c r="L6" s="26">
-        <f>L4-L5</f>
-        <v>766</v>
+        <v>3177</v>
       </c>
       <c r="M6" s="26">
-        <f>M4-M5</f>
-        <v>885</v>
+        <v>3357</v>
       </c>
       <c r="N6" s="26">
-        <f>N4-N5</f>
-        <v>980</v>
+        <f>AA6-SUM(K6:M6)</f>
+        <v>3671</v>
       </c>
       <c r="O6" s="26">
-        <f>O4-O5</f>
-        <v>1004</v>
+        <v>3636</v>
       </c>
       <c r="P6" s="26">
-        <f>P4-P5</f>
-        <v>1112</v>
+        <v>3807</v>
+      </c>
+      <c r="Q6" s="26">
+        <f>+P6*1.2</f>
+        <v>4568.3999999999996</v>
       </c>
       <c r="Y6" s="26">
-        <f>Y4-Y5</f>
-        <v>2591</v>
+        <v>9668</v>
       </c>
       <c r="Z6" s="26">
-        <f>Z4-Z5</f>
-        <v>2926</v>
+        <v>11727</v>
       </c>
       <c r="AA6" s="26">
-        <f>AA4-AA5</f>
-        <v>3397</v>
+        <v>13247</v>
       </c>
     </row>
     <row r="7" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1599</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1668</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1833</v>
+      </c>
+      <c r="F7" s="17">
+        <f>+Y7-SUM(C7:E7)</f>
+        <v>1977</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1990</v>
+      </c>
+      <c r="H7" s="17">
+        <v>2160</v>
       </c>
       <c r="I7" s="17">
-        <v>386</v>
+        <v>2286</v>
+      </c>
+      <c r="J7" s="17">
+        <f>+Z7-SUM(G7:I7)</f>
+        <v>2365</v>
       </c>
       <c r="K7" s="17">
-        <v>435</v>
+        <v>2276</v>
       </c>
       <c r="L7" s="17">
-        <v>453</v>
+        <v>2411</v>
       </c>
       <c r="M7" s="17">
-        <v>369</v>
+        <v>2472</v>
       </c>
       <c r="N7" s="17">
-        <f t="shared" ref="N7:N9" si="0">AA7-SUM(K7:M7)</f>
-        <v>468</v>
+        <f>AA7-SUM(K7:M7)</f>
+        <v>2691</v>
       </c>
       <c r="O7" s="17">
-        <v>389</v>
+        <v>2632</v>
       </c>
       <c r="P7" s="17">
-        <v>379</v>
+        <v>2695</v>
       </c>
       <c r="Y7" s="17">
-        <v>912</v>
+        <v>7077</v>
       </c>
       <c r="Z7" s="17">
-        <v>1387</v>
+        <v>8801</v>
       </c>
       <c r="AA7" s="17">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="17">
-        <v>432</v>
-      </c>
-      <c r="K8" s="17">
-        <v>347</v>
-      </c>
-      <c r="L8" s="17">
-        <v>399</v>
-      </c>
-      <c r="M8" s="17">
-        <v>355</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
-      <c r="O8" s="17">
-        <v>324</v>
-      </c>
-      <c r="P8" s="17">
-        <v>343</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>1135</v>
-      </c>
-      <c r="Z8" s="17">
-        <v>1572</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>1533</v>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="26">
+        <f>C6-C7</f>
+        <v>548</v>
+      </c>
+      <c r="D8" s="26">
+        <f>D6-D7</f>
+        <v>663</v>
+      </c>
+      <c r="E8" s="26">
+        <f>E6-E7</f>
+        <v>668</v>
+      </c>
+      <c r="F8" s="26">
+        <f>F6-F7</f>
+        <v>712</v>
+      </c>
+      <c r="G8" s="26">
+        <f>G6-G7</f>
+        <v>671</v>
+      </c>
+      <c r="H8" s="26">
+        <f>H6-H7</f>
+        <v>704</v>
+      </c>
+      <c r="I8" s="26">
+        <f>I6-I7</f>
+        <v>750</v>
+      </c>
+      <c r="J8" s="26">
+        <f>J6-J7</f>
+        <v>801</v>
+      </c>
+      <c r="K8" s="26">
+        <f>K6-K7</f>
+        <v>766</v>
+      </c>
+      <c r="L8" s="26">
+        <f>L6-L7</f>
+        <v>766</v>
+      </c>
+      <c r="M8" s="26">
+        <f>M6-M7</f>
+        <v>885</v>
+      </c>
+      <c r="N8" s="26">
+        <f>N6-N7</f>
+        <v>980</v>
+      </c>
+      <c r="O8" s="26">
+        <f>O6-O7</f>
+        <v>1004</v>
+      </c>
+      <c r="P8" s="26">
+        <f>P6-P7</f>
+        <v>1112</v>
+      </c>
+      <c r="Y8" s="26">
+        <f>Y6-Y7</f>
+        <v>2591</v>
+      </c>
+      <c r="Z8" s="26">
+        <f>Z6-Z7</f>
+        <v>2926</v>
+      </c>
+      <c r="AA8" s="26">
+        <f>AA6-AA7</f>
+        <v>3397</v>
       </c>
     </row>
     <row r="9" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="17">
+        <v>196</v>
+      </c>
+      <c r="D9" s="17">
+        <v>255</v>
+      </c>
+      <c r="E9" s="17">
+        <v>208</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" ref="F9:F11" si="0">+Y9-SUM(C9:E9)</f>
+        <v>253</v>
+      </c>
+      <c r="G9" s="17">
+        <v>250</v>
+      </c>
+      <c r="H9" s="17">
+        <v>336</v>
       </c>
       <c r="I9" s="17">
-        <v>160</v>
+        <v>386</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" ref="J9:J11" si="1">+Z9-SUM(G9:I9)</f>
+        <v>415</v>
       </c>
       <c r="K9" s="17">
-        <v>140</v>
+        <v>435</v>
       </c>
       <c r="L9" s="17">
-        <v>161</v>
+        <v>453</v>
       </c>
       <c r="M9" s="17">
-        <v>129</v>
+        <v>369</v>
       </c>
       <c r="N9" s="17">
+        <f t="shared" ref="N9:N11" si="2">AA9-SUM(K9:M9)</f>
+        <v>468</v>
+      </c>
+      <c r="O9" s="17">
+        <v>389</v>
+      </c>
+      <c r="P9" s="17">
+        <v>379</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>912</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>1387</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="17">
+        <v>236</v>
+      </c>
+      <c r="D10" s="17">
+        <v>279</v>
+      </c>
+      <c r="E10" s="17">
+        <v>280</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="O9" s="17">
-        <v>123</v>
-      </c>
-      <c r="P9" s="17">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>450</v>
-      </c>
-      <c r="Z9" s="17">
-        <v>626</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="26">
-        <f>I6-I7-I8-I9</f>
-        <v>-228</v>
-      </c>
-      <c r="K10" s="26">
-        <f>K6-K7-K8-K9</f>
-        <v>-156</v>
-      </c>
-      <c r="L10" s="26">
-        <f>L6-L7-L8-L9</f>
-        <v>-247</v>
-      </c>
-      <c r="M10" s="26">
-        <f>M6-M7-M8-M9</f>
-        <v>32</v>
-      </c>
-      <c r="N10" s="26">
-        <f>N6-N7-N8-N9</f>
-        <v>-75</v>
-      </c>
-      <c r="O10" s="26">
-        <f>O6-O7-O8-O9</f>
-        <v>168</v>
-      </c>
-      <c r="P10" s="26">
-        <f>P6-P7-P8-P9</f>
-        <v>266</v>
-      </c>
-      <c r="Y10" s="26">
-        <f>Y6-Y7-Y8-Y9</f>
-        <v>94</v>
-      </c>
-      <c r="Z10" s="26">
-        <f>Z6-Z7-Z8-Z9</f>
-        <v>-659</v>
-      </c>
-      <c r="AA10" s="26">
-        <f>AA6-AA7-AA8-AA9</f>
-        <v>-446</v>
+        <v>340</v>
+      </c>
+      <c r="G10" s="17">
+        <v>296</v>
+      </c>
+      <c r="H10" s="17">
+        <v>391</v>
+      </c>
+      <c r="I10" s="17">
+        <v>432</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="K10" s="17">
+        <v>347</v>
+      </c>
+      <c r="L10" s="17">
+        <v>399</v>
+      </c>
+      <c r="M10" s="17">
+        <v>355</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="O10" s="17">
+        <v>324</v>
+      </c>
+      <c r="P10" s="17">
+        <v>343</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>1135</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>1572</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>1533</v>
       </c>
     </row>
     <row r="11" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="17">
+        <v>102</v>
+      </c>
+      <c r="D11" s="17">
+        <v>117</v>
+      </c>
+      <c r="E11" s="17">
+        <v>105</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="G11" s="17">
+        <v>131</v>
+      </c>
+      <c r="H11" s="17">
+        <v>171</v>
       </c>
       <c r="I11" s="17">
-        <v>102</v>
+        <v>160</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="1"/>
+        <v>164</v>
       </c>
       <c r="K11" s="17">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="L11" s="17">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="M11" s="17">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" ref="N11:N12" si="1">AA11-SUM(K11:M11)</f>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>155</v>
       </c>
       <c r="O11" s="17">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="P11" s="17">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="Y11" s="17">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="Z11" s="17">
-        <v>421</v>
+        <v>626</v>
       </c>
       <c r="AA11" s="17">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="17">
-        <v>18</v>
-      </c>
-      <c r="K12" s="17">
-        <v>77</v>
-      </c>
-      <c r="L12" s="17">
-        <v>27</v>
-      </c>
-      <c r="M12" s="17">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26">
+        <f>C8-C9-C10-C11</f>
         <v>14</v>
       </c>
-      <c r="N12" s="17">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="O12" s="17">
-        <v>53</v>
-      </c>
-      <c r="P12" s="17">
-        <v>72</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>91</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>132</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>220</v>
+      <c r="D12" s="26">
+        <f>D8-D9-D10-D11</f>
+        <v>12</v>
+      </c>
+      <c r="E12" s="26">
+        <f>E8-E9-E10-E11</f>
+        <v>75</v>
+      </c>
+      <c r="F12" s="26">
+        <f>F8-F9-F10-F11</f>
+        <v>-7</v>
+      </c>
+      <c r="G12" s="26">
+        <f>G8-G9-G10-G11</f>
+        <v>-6</v>
+      </c>
+      <c r="H12" s="26">
+        <f>H8-H9-H10-H11</f>
+        <v>-194</v>
+      </c>
+      <c r="I12" s="26">
+        <f>I8-I9-I10-I11</f>
+        <v>-228</v>
+      </c>
+      <c r="J12" s="26">
+        <f>J8-J9-J10-J11</f>
+        <v>-231</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" ref="K12:P12" si="3">K8-K9-K10-K11</f>
+        <v>-156</v>
+      </c>
+      <c r="L12" s="26">
+        <f t="shared" si="3"/>
+        <v>-247</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="3"/>
+        <v>-75</v>
+      </c>
+      <c r="O12" s="26">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+      <c r="Y12" s="26">
+        <f>Y8-Y9-Y10-Y11</f>
+        <v>94</v>
+      </c>
+      <c r="Z12" s="26">
+        <f>Z8-Z9-Z10-Z11</f>
+        <v>-659</v>
+      </c>
+      <c r="AA12" s="26">
+        <f>AA8-AA9-AA10-AA11</f>
+        <v>-446</v>
       </c>
     </row>
     <row r="13" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="17">
+        <v>104</v>
+      </c>
+      <c r="D13" s="17">
+        <v>21</v>
+      </c>
+      <c r="E13" s="17">
+        <v>101</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" ref="F13:F16" si="4">+Y13-SUM(C13:E13)</f>
+        <v>20</v>
+      </c>
+      <c r="G13" s="17">
+        <v>175</v>
+      </c>
+      <c r="H13" s="17">
+        <v>118</v>
       </c>
       <c r="I13" s="17">
-        <f>I10+I11-I12</f>
-        <v>-144</v>
+        <v>102</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13:J14" si="5">+Z13-SUM(G13:I13)</f>
+        <v>26</v>
       </c>
       <c r="K13" s="17">
-        <f>K10+K11-K12</f>
-        <v>-206</v>
+        <v>27</v>
       </c>
       <c r="L13" s="17">
-        <f>L10+L11-L12</f>
-        <v>-241</v>
+        <v>33</v>
       </c>
       <c r="M13" s="17">
-        <f>M10+M11-M12</f>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="N13" s="17">
-        <f>N10+N11-N12</f>
-        <v>-131</v>
+        <f t="shared" ref="N13:N14" si="6">AA13-SUM(K13:M13)</f>
+        <v>46</v>
       </c>
       <c r="O13" s="17">
-        <f>O10+O11-O12</f>
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="P13" s="17">
-        <f>P10+P11-P12</f>
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="17">
-        <f>Y10+Y11-Y12</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Z13" s="17">
-        <f>Z10+Z11-Z12</f>
-        <v>-370</v>
+        <v>421</v>
       </c>
       <c r="AA13" s="17">
-        <f>AA10+AA11-AA12</f>
-        <v>-505</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="17">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17">
+        <v>14</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G14" s="17">
+        <v>14</v>
+      </c>
+      <c r="H14" s="17">
+        <v>14</v>
+      </c>
+      <c r="I14" s="17">
+        <v>18</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="K14" s="17">
+        <v>77</v>
+      </c>
+      <c r="L14" s="17">
+        <v>27</v>
+      </c>
+      <c r="M14" s="17">
+        <v>14</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="O14" s="17">
+        <v>53</v>
+      </c>
+      <c r="P14" s="17">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>91</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>132</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17">
+        <f>C12+C13-C14</f>
+        <v>87</v>
+      </c>
+      <c r="D15" s="17">
+        <f>D12+D13-D14</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="17">
+        <f>E12+E13-E14</f>
+        <v>162</v>
+      </c>
+      <c r="F15" s="17">
+        <f>F12+F13-F14</f>
+        <v>-8</v>
+      </c>
+      <c r="G15" s="17">
+        <f>G12+G13-G14</f>
+        <v>155</v>
+      </c>
+      <c r="H15" s="17">
+        <f>H12+H13-H14</f>
+        <v>-90</v>
+      </c>
+      <c r="I15" s="17">
+        <f>I12+I13-I14</f>
+        <v>-144</v>
+      </c>
+      <c r="J15" s="17">
+        <f>J12+J13-J14</f>
+        <v>-291</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" ref="K15:P15" si="7">K12+K13-K14</f>
+        <v>-206</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="7"/>
+        <v>-241</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="N15" s="17">
+        <f t="shared" si="7"/>
+        <v>-131</v>
+      </c>
+      <c r="O15" s="17">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="Y15" s="17">
+        <f>Y12+Y13-Y14</f>
+        <v>249</v>
+      </c>
+      <c r="Z15" s="17">
+        <f>Z12+Z13-Z14</f>
+        <v>-370</v>
+      </c>
+      <c r="AA15" s="17">
+        <f>AA12+AA13-AA14</f>
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17">
+        <v>64</v>
+      </c>
+      <c r="D16" s="17">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17">
+        <v>160</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G16" s="17">
+        <v>24</v>
+      </c>
+      <c r="H16" s="17">
+        <v>35</v>
+      </c>
+      <c r="I16" s="17">
+        <v>22</v>
+      </c>
+      <c r="J16" s="17">
+        <f>+Z16-SUM(G16:I16)</f>
+        <v>-21</v>
+      </c>
+      <c r="K16" s="17">
+        <v>19</v>
+      </c>
+      <c r="L16" s="17">
+        <v>61</v>
+      </c>
+      <c r="M16" s="17">
+        <v>8</v>
+      </c>
+      <c r="N16" s="17">
+        <f>AA16-SUM(K16:M16)</f>
+        <v>-61</v>
+      </c>
+      <c r="O16" s="17">
+        <v>-23</v>
+      </c>
+      <c r="P16" s="17">
+        <v>-4</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>283</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>60</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="26">
+        <f>C15-C16</f>
+        <v>23</v>
+      </c>
+      <c r="D17" s="26">
+        <f>D15-D16</f>
+        <v>-20</v>
+      </c>
+      <c r="E17" s="26">
+        <f>E15-E16</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="26">
+        <f>F15-F16</f>
+        <v>-39</v>
+      </c>
+      <c r="G17" s="26">
+        <f>G15-G16</f>
+        <v>131</v>
+      </c>
+      <c r="H17" s="26">
+        <f>H15-H16</f>
+        <v>-125</v>
+      </c>
+      <c r="I17" s="26">
+        <f>I15-I16</f>
+        <v>-166</v>
+      </c>
+      <c r="J17" s="26">
+        <f>J15-J16</f>
+        <v>-270</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" ref="K17:P17" si="8">K15-K16</f>
+        <v>-225</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="8"/>
+        <v>-302</v>
+      </c>
+      <c r="M17" s="26">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="N17" s="26">
+        <f t="shared" si="8"/>
+        <v>-70</v>
+      </c>
+      <c r="O17" s="26">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" si="8"/>
+        <v>274</v>
+      </c>
+      <c r="Y17" s="26">
+        <f>Y15-Y16</f>
+        <v>-34</v>
+      </c>
+      <c r="Z17" s="26">
+        <f>Z15-Z16</f>
+        <v>-430</v>
+      </c>
+      <c r="AA17" s="26">
+        <f>AA15-AA16</f>
+        <v>-532</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="17">
-        <v>22</v>
-      </c>
-      <c r="K14" s="17">
-        <v>19</v>
-      </c>
-      <c r="L14" s="17">
-        <v>61</v>
-      </c>
-      <c r="M14" s="17">
-        <v>8</v>
-      </c>
-      <c r="N14" s="17">
-        <f>AA14-SUM(K14:M14)</f>
-        <v>-61</v>
-      </c>
-      <c r="O14" s="17">
-        <v>-23</v>
-      </c>
-      <c r="P14" s="17">
-        <v>-4</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>283</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>60</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
+      <c r="C18" s="25">
+        <f>C17/C19</f>
+        <v>0.1206934751118536</v>
+      </c>
+      <c r="D18" s="25">
+        <f>D17/D19</f>
+        <v>-0.10461731337236389</v>
+      </c>
+      <c r="E18" s="25">
+        <f>E17/E19</f>
+        <v>1.0444656551048131E-2</v>
+      </c>
+      <c r="F18" s="25">
+        <f>F17/F19</f>
+        <v>-0.20386997806364265</v>
+      </c>
+      <c r="G18" s="25">
+        <f>G17/G19</f>
+        <v>0.6806042572928902</v>
+      </c>
+      <c r="H18" s="25">
+        <f>H17/H19</f>
+        <v>-0.64784283469654669</v>
+      </c>
+      <c r="I18" s="25">
+        <f>I17/I19</f>
+        <v>-0.85975912636125373</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" ref="J18:P18" si="9">J17/J19</f>
+        <v>-1.3994360438602329</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="9"/>
+        <v>-1.16241546875964</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" si="9"/>
+        <v>-1.5533371112686438</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="9"/>
+        <v>0.33353563894752719</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="9"/>
+        <v>-0.35946783642019664</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="9"/>
+        <v>0.99482159505796064</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" si="9"/>
+        <v>1.3702797289038584</v>
+      </c>
+      <c r="Y18" s="25">
+        <f>Y17/Y19</f>
+        <v>-0.17773280138881667</v>
+      </c>
+      <c r="Z18" s="25">
+        <f>Z17/Z19</f>
+        <v>-2.2287314772588895</v>
+      </c>
+      <c r="AA18" s="25">
+        <f>AA17/AA19</f>
+        <v>-2.7319555567934941</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="17">
+        <v>190.56539699999999</v>
+      </c>
+      <c r="D19" s="17">
+        <v>191.172946</v>
+      </c>
+      <c r="E19" s="17">
+        <v>191.48547300000001</v>
+      </c>
+      <c r="F19" s="17">
+        <f>+Y19</f>
+        <v>191.29839699999999</v>
+      </c>
+      <c r="G19" s="17">
+        <v>192.476022</v>
+      </c>
+      <c r="H19" s="17">
+        <v>192.94803200000001</v>
+      </c>
+      <c r="I19" s="17">
+        <v>193.07733400000001</v>
+      </c>
+      <c r="J19" s="17">
+        <f>+Z19</f>
+        <v>192.93486200000001</v>
+      </c>
+      <c r="K19" s="17">
+        <v>193.56246200000001</v>
+      </c>
+      <c r="L19" s="17">
+        <v>194.42012800000001</v>
+      </c>
+      <c r="M19" s="17">
+        <v>194.88172299999999</v>
+      </c>
+      <c r="N19" s="17">
+        <f>AA19</f>
+        <v>194.732304</v>
+      </c>
+      <c r="O19" s="17">
+        <v>198.02545599999999</v>
+      </c>
+      <c r="P19" s="17">
+        <v>199.959172</v>
+      </c>
+      <c r="Y19" s="17">
+        <v>191.29839699999999</v>
+      </c>
+      <c r="Z19" s="17">
+        <v>192.93486200000001</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>194.732304</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="26">
-        <f>I13-I14</f>
-        <v>-166</v>
-      </c>
-      <c r="K15" s="26">
-        <f>K13-K14</f>
-        <v>-225</v>
-      </c>
-      <c r="L15" s="26">
-        <f>L13-L14</f>
-        <v>-302</v>
-      </c>
-      <c r="M15" s="26">
-        <f>M13-M14</f>
-        <v>65</v>
-      </c>
-      <c r="N15" s="26">
-        <f>N13-N14</f>
-        <v>-70</v>
-      </c>
-      <c r="O15" s="26">
-        <f>O13-O14</f>
-        <v>197</v>
-      </c>
-      <c r="P15" s="26">
-        <f>P13-P14</f>
-        <v>274</v>
-      </c>
-      <c r="Y15" s="26">
-        <f>Y13-Y14</f>
-        <v>-34</v>
-      </c>
-      <c r="Z15" s="26">
-        <f>Z13-Z14</f>
-        <v>-430</v>
-      </c>
-      <c r="AA15" s="26">
-        <f>AA13-AA14</f>
-        <v>-532</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="25">
-        <f>I15/I17</f>
-        <v>-0.85975912636125373</v>
-      </c>
-      <c r="K16" s="25">
-        <f>K15/K17</f>
-        <v>-1.16241546875964</v>
-      </c>
-      <c r="L16" s="25">
-        <f>L15/L17</f>
-        <v>-1.5533371112686438</v>
-      </c>
-      <c r="M16" s="25">
-        <f>M15/M17</f>
-        <v>0.33353563894752719</v>
-      </c>
-      <c r="N16" s="25">
-        <f>N15/N17</f>
-        <v>-0.35946783642019664</v>
-      </c>
-      <c r="O16" s="25">
-        <f>O15/O17</f>
-        <v>0.99482159505796064</v>
-      </c>
-      <c r="P16" s="25">
-        <f>P15/P17</f>
-        <v>1.3702797289038584</v>
-      </c>
-      <c r="Y16" s="25">
-        <f>Y15/Y17</f>
-        <v>-0.17773280138881667</v>
-      </c>
-      <c r="Z16" s="25">
-        <f>Z15/Z17</f>
-        <v>-2.2287314772588895</v>
-      </c>
-      <c r="AA16" s="25">
-        <f>AA15/AA17</f>
-        <v>-2.7319555567934941</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="17">
-        <v>193.07733400000001</v>
-      </c>
-      <c r="K17" s="17">
-        <v>193.56246200000001</v>
-      </c>
-      <c r="L17" s="17">
-        <v>194.42012800000001</v>
-      </c>
-      <c r="M17" s="17">
-        <v>194.88172299999999</v>
-      </c>
-      <c r="N17" s="17">
-        <f>AA17</f>
-        <v>194.732304</v>
-      </c>
-      <c r="O17" s="17">
-        <v>198.02545599999999</v>
-      </c>
-      <c r="P17" s="17">
-        <v>199.959172</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>191.29839699999999</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>192.93486200000001</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>194.732304</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="29">
-        <f>M4/I4-1</f>
+      <c r="C21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="29">
+        <f>G6/C6-1</f>
+        <v>0.23940381928272014</v>
+      </c>
+      <c r="H21" s="29">
+        <f>H6/D6-1</f>
+        <v>0.2286572286572286</v>
+      </c>
+      <c r="I21" s="29">
+        <f>I6/E6-1</f>
+        <v>0.21391443422630951</v>
+      </c>
+      <c r="J21" s="29">
+        <f>J6/F6-1</f>
+        <v>0.17738936407586459</v>
+      </c>
+      <c r="K21" s="29">
+        <f>K6/G6-1</f>
+        <v>0.14317925591882741</v>
+      </c>
+      <c r="L21" s="29">
+        <f>L6/H6-1</f>
+        <v>0.10928770949720668</v>
+      </c>
+      <c r="M21" s="29">
+        <f>M6/I6-1</f>
         <v>0.10573122529644263</v>
       </c>
-      <c r="O19" s="29">
-        <f>O4/K4-1</f>
+      <c r="N21" s="29">
+        <f>N6/J6-1</f>
+        <v>0.15950726468730259</v>
+      </c>
+      <c r="O21" s="29">
+        <f>O6/K6-1</f>
         <v>0.19526627218934922</v>
       </c>
-      <c r="P19" s="29">
-        <f>P4/L4-1</f>
+      <c r="P21" s="29">
+        <f>P6/L6-1</f>
         <v>0.19830028328611893</v>
       </c>
-      <c r="V19" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z19" s="29">
-        <f>Z4/Y4-1</f>
+      <c r="V21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z21" s="29">
+        <f>Z6/Y6-1</f>
         <v>0.21297062474141493</v>
       </c>
-      <c r="AA19" s="29">
-        <f>AA4/Z4-1</f>
+      <c r="AA21" s="29">
+        <f>AA6/Z6-1</f>
         <v>0.12961541741280813</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="27">
-        <f>L4/K4-1</f>
-        <v>4.4378698224851965E-2</v>
-      </c>
-      <c r="M20" s="27">
-        <f>M4/L4-1</f>
-        <v>5.6657223796033884E-2</v>
-      </c>
-      <c r="N20" s="27">
-        <f>N4/M4-1</f>
-        <v>9.3535895144474246E-2</v>
-      </c>
-      <c r="O20" s="27">
-        <f>O4/N4-1</f>
-        <v>-9.5341868700626886E-3</v>
-      </c>
-      <c r="P20" s="27">
-        <f>P4/O4-1</f>
-        <v>4.7029702970297071E-2</v>
-      </c>
-      <c r="V20" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="W20" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="X20" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y20" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z20" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA20" s="43" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="27">
+        <f>D6/C6-1</f>
+        <v>8.5700978108989245E-2</v>
+      </c>
+      <c r="E22" s="27">
+        <f>E6/D6-1</f>
+        <v>7.2930072930073031E-2</v>
+      </c>
+      <c r="F22" s="27">
+        <f>F6/E6-1</f>
+        <v>7.5169932027189024E-2</v>
+      </c>
+      <c r="G22" s="27">
+        <f>G6/F6-1</f>
+        <v>-1.0412792859799236E-2</v>
+      </c>
+      <c r="H22" s="27">
+        <f>H6/G6-1</f>
+        <v>7.6287110108981482E-2</v>
       </c>
       <c r="I22" s="27">
-        <f>I6/I4</f>
-        <v>0.24703557312252963</v>
+        <f>I6/H6-1</f>
+        <v>6.0055865921787799E-2</v>
+      </c>
+      <c r="J22" s="27">
+        <f>J6/I6-1</f>
+        <v>4.2819499341238521E-2</v>
       </c>
       <c r="K22" s="27">
-        <f>K6/K4</f>
-        <v>0.2518080210387903</v>
+        <f>K6/J6-1</f>
+        <v>-3.9166140240050495E-2</v>
       </c>
       <c r="L22" s="27">
-        <f>L6/L4</f>
-        <v>0.24110796348756688</v>
+        <f>L6/K6-1</f>
+        <v>4.4378698224851965E-2</v>
       </c>
       <c r="M22" s="27">
-        <f>M6/M4</f>
-        <v>0.26362823949955316</v>
+        <f>M6/L6-1</f>
+        <v>5.6657223796033884E-2</v>
       </c>
       <c r="N22" s="27">
-        <f>N6/N4</f>
-        <v>0.26695723236175428</v>
+        <f>N6/M6-1</f>
+        <v>9.3535895144474246E-2</v>
       </c>
       <c r="O22" s="27">
-        <f>O6/O4</f>
-        <v>0.27612761276127612</v>
+        <f>O6/N6-1</f>
+        <v>-9.5341868700626886E-3</v>
       </c>
       <c r="P22" s="27">
-        <f>P6/P4</f>
-        <v>0.29209351195166799</v>
-      </c>
-      <c r="Y22" s="27">
-        <f>Y6/Y4</f>
-        <v>0.26799751758378154</v>
-      </c>
-      <c r="Z22" s="27">
-        <f>Z6/Z4</f>
-        <v>0.2495096785196555</v>
-      </c>
-      <c r="AA22" s="27">
-        <f>AA6/AA4</f>
-        <v>0.25643541934022795</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="27">
-        <f>I10/I4</f>
-        <v>-7.5098814229249009E-2</v>
-      </c>
-      <c r="K23" s="27">
-        <f>K10/K4</f>
-        <v>-5.128205128205128E-2</v>
-      </c>
-      <c r="L23" s="27">
-        <f>L10/L4</f>
-        <v>-7.7746301542335541E-2</v>
-      </c>
-      <c r="M23" s="27">
-        <f>M10/M4</f>
-        <v>9.5323205242776286E-3</v>
-      </c>
-      <c r="N23" s="27">
-        <f>N10/N4</f>
-        <v>-2.0430400435848543E-2</v>
-      </c>
-      <c r="O23" s="27">
-        <f>O10/O4</f>
-        <v>4.6204620462046202E-2</v>
-      </c>
-      <c r="P23" s="27">
-        <f>P10/P4</f>
-        <v>6.9871289729445757E-2</v>
-      </c>
-      <c r="Y23" s="27">
-        <f>Y10/Y4</f>
-        <v>9.722796855606123E-3</v>
-      </c>
-      <c r="Z23" s="27">
-        <f>Z10/Z4</f>
-        <v>-5.6195105312526646E-2</v>
-      </c>
-      <c r="AA23" s="27">
-        <f>AA10/AA4</f>
-        <v>-3.3668000301955159E-2</v>
+        <f>P6/O6-1</f>
+        <v>4.7029702970297071E-2</v>
+      </c>
+      <c r="V22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA22" s="34" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="27">
+        <f>C8/C6</f>
+        <v>0.25523986958546807</v>
+      </c>
+      <c r="D24" s="27">
+        <f>D8/D6</f>
+        <v>0.28442728442728443</v>
+      </c>
+      <c r="E24" s="27">
+        <f>E8/E6</f>
+        <v>0.26709316273490602</v>
+      </c>
+      <c r="F24" s="27">
+        <f>F8/F6</f>
+        <v>0.26478244700632203</v>
+      </c>
+      <c r="G24" s="27">
+        <f>G8/G6</f>
+        <v>0.25216084178880122</v>
+      </c>
+      <c r="H24" s="27">
+        <f>H8/H6</f>
+        <v>0.24581005586592178</v>
       </c>
       <c r="I24" s="27">
-        <f>I15/I4</f>
-        <v>-5.4677206851119896E-2</v>
+        <f>I8/I6</f>
+        <v>0.24703557312252963</v>
+      </c>
+      <c r="J24" s="27">
+        <f>J8/J6</f>
+        <v>0.25300063171193937</v>
       </c>
       <c r="K24" s="27">
-        <f>K15/K4</f>
-        <v>-7.3964497041420121E-2</v>
+        <f>K8/K6</f>
+        <v>0.2518080210387903</v>
       </c>
       <c r="L24" s="27">
-        <f>L15/L4</f>
-        <v>-9.5058231035568153E-2</v>
+        <f>L8/L6</f>
+        <v>0.24110796348756688</v>
       </c>
       <c r="M24" s="27">
-        <f>M15/M4</f>
-        <v>1.9362526064938934E-2</v>
+        <f>M8/M6</f>
+        <v>0.26362823949955316</v>
       </c>
       <c r="N24" s="27">
-        <f>N15/N4</f>
-        <v>-1.9068373740125308E-2</v>
+        <f>N8/N6</f>
+        <v>0.26695723236175428</v>
       </c>
       <c r="O24" s="27">
-        <f>O15/O4</f>
-        <v>5.4180418041804179E-2</v>
+        <f>O8/O6</f>
+        <v>0.27612761276127612</v>
       </c>
       <c r="P24" s="27">
-        <f>P15/P4</f>
-        <v>7.1972681901759913E-2</v>
+        <f>P8/P6</f>
+        <v>0.29209351195166799</v>
       </c>
       <c r="Y24" s="27">
-        <f>Y15/Y4</f>
-        <v>-3.5167563094745551E-3</v>
+        <f>Y8/Y6</f>
+        <v>0.26799751758378154</v>
       </c>
       <c r="Z24" s="27">
-        <f>Z15/Z4</f>
-        <v>-3.6667519399675962E-2</v>
+        <f>Z8/Z6</f>
+        <v>0.2495096785196555</v>
       </c>
       <c r="AA24" s="27">
-        <f>AA15/AA4</f>
-        <v>-4.0160036234619161E-2</v>
+        <f>AA8/AA6</f>
+        <v>0.25643541934022795</v>
       </c>
     </row>
     <row r="25" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="27">
+        <f>C12/C6</f>
+        <v>6.5207265952491851E-3</v>
+      </c>
+      <c r="D25" s="27">
+        <f>D12/D6</f>
+        <v>5.1480051480051478E-3</v>
+      </c>
+      <c r="E25" s="27">
+        <f>E12/E6</f>
+        <v>2.9988004798080767E-2</v>
+      </c>
+      <c r="F25" s="27">
+        <f>F12/F6</f>
+        <v>-2.6031982149497955E-3</v>
+      </c>
+      <c r="G25" s="27">
+        <f>G12/G6</f>
+        <v>-2.2547914317925591E-3</v>
+      </c>
+      <c r="H25" s="27">
+        <f>H12/H6</f>
+        <v>-6.773743016759777E-2</v>
       </c>
       <c r="I25" s="27">
-        <f>I14/I13</f>
+        <f>I12/I6</f>
+        <v>-7.5098814229249009E-2</v>
+      </c>
+      <c r="J25" s="27">
+        <f>J12/J6</f>
+        <v>-7.2962728995578013E-2</v>
+      </c>
+      <c r="K25" s="27">
+        <f>K12/K6</f>
+        <v>-5.128205128205128E-2</v>
+      </c>
+      <c r="L25" s="27">
+        <f>L12/L6</f>
+        <v>-7.7746301542335541E-2</v>
+      </c>
+      <c r="M25" s="27">
+        <f>M12/M6</f>
+        <v>9.5323205242776286E-3</v>
+      </c>
+      <c r="N25" s="27">
+        <f>N12/N6</f>
+        <v>-2.0430400435848543E-2</v>
+      </c>
+      <c r="O25" s="27">
+        <f>O12/O6</f>
+        <v>4.6204620462046202E-2</v>
+      </c>
+      <c r="P25" s="27">
+        <f>P12/P6</f>
+        <v>6.9871289729445757E-2</v>
+      </c>
+      <c r="Y25" s="27">
+        <f>Y12/Y6</f>
+        <v>9.722796855606123E-3</v>
+      </c>
+      <c r="Z25" s="27">
+        <f>Z12/Z6</f>
+        <v>-5.6195105312526646E-2</v>
+      </c>
+      <c r="AA25" s="27">
+        <f>AA12/AA6</f>
+        <v>-3.3668000301955159E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="27">
+        <f>C17/C6</f>
+        <v>1.0712622263623661E-2</v>
+      </c>
+      <c r="D26" s="27">
+        <f>D17/D6</f>
+        <v>-8.5800085800085794E-3</v>
+      </c>
+      <c r="E26" s="27">
+        <f>E17/E6</f>
+        <v>7.9968012794882047E-4</v>
+      </c>
+      <c r="F26" s="27">
+        <f>F17/F6</f>
+        <v>-1.4503532911863145E-2</v>
+      </c>
+      <c r="G26" s="27">
+        <f>G17/G6</f>
+        <v>4.9229612927470877E-2</v>
+      </c>
+      <c r="H26" s="27">
+        <f>H17/H6</f>
+        <v>-4.3645251396648044E-2</v>
+      </c>
+      <c r="I26" s="27">
+        <f>I17/I6</f>
+        <v>-5.4677206851119896E-2</v>
+      </c>
+      <c r="J26" s="27">
+        <f>J17/J6</f>
+        <v>-8.5281111813013261E-2</v>
+      </c>
+      <c r="K26" s="27">
+        <f>K17/K6</f>
+        <v>-7.3964497041420121E-2</v>
+      </c>
+      <c r="L26" s="27">
+        <f>L17/L6</f>
+        <v>-9.5058231035568153E-2</v>
+      </c>
+      <c r="M26" s="27">
+        <f>M17/M6</f>
+        <v>1.9362526064938934E-2</v>
+      </c>
+      <c r="N26" s="27">
+        <f>N17/N6</f>
+        <v>-1.9068373740125308E-2</v>
+      </c>
+      <c r="O26" s="27">
+        <f>O17/O6</f>
+        <v>5.4180418041804179E-2</v>
+      </c>
+      <c r="P26" s="27">
+        <f>P17/P6</f>
+        <v>7.1972681901759913E-2</v>
+      </c>
+      <c r="Y26" s="27">
+        <f>Y17/Y6</f>
+        <v>-3.5167563094745551E-3</v>
+      </c>
+      <c r="Z26" s="27">
+        <f>Z17/Z6</f>
+        <v>-3.6667519399675962E-2</v>
+      </c>
+      <c r="AA26" s="27">
+        <f>AA17/AA6</f>
+        <v>-4.0160036234619161E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="27">
+        <f>C16/C15</f>
+        <v>0.73563218390804597</v>
+      </c>
+      <c r="D27" s="27">
+        <f>D16/D15</f>
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="27">
+        <f>E16/E15</f>
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="F27" s="27">
+        <f>F16/F15</f>
+        <v>-3.875</v>
+      </c>
+      <c r="G27" s="27">
+        <f>G16/G15</f>
+        <v>0.15483870967741936</v>
+      </c>
+      <c r="H27" s="27">
+        <f>H16/H15</f>
+        <v>-0.3888888888888889</v>
+      </c>
+      <c r="I27" s="27">
+        <f>I16/I15</f>
         <v>-0.15277777777777779</v>
       </c>
-      <c r="K25" s="27">
-        <f>K14/K13</f>
+      <c r="J27" s="27">
+        <f t="shared" ref="J27" si="10">J16/J15</f>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" ref="K27:P27" si="11">K16/K15</f>
         <v>-9.2233009708737865E-2</v>
       </c>
-      <c r="L25" s="27">
-        <f>L14/L13</f>
+      <c r="L27" s="27">
+        <f t="shared" si="11"/>
         <v>-0.25311203319502074</v>
       </c>
-      <c r="M25" s="27">
-        <f>M14/M13</f>
+      <c r="M27" s="27">
+        <f t="shared" si="11"/>
         <v>0.1095890410958904</v>
       </c>
-      <c r="N25" s="27">
-        <f>N14/N13</f>
+      <c r="N27" s="27">
+        <f t="shared" si="11"/>
         <v>0.46564885496183206</v>
       </c>
-      <c r="O25" s="27">
-        <f>O14/O13</f>
+      <c r="O27" s="27">
+        <f t="shared" si="11"/>
         <v>-0.13218390804597702</v>
       </c>
-      <c r="P25" s="27">
-        <f>P14/P13</f>
+      <c r="P27" s="27">
+        <f t="shared" si="11"/>
         <v>-1.4814814814814815E-2</v>
       </c>
-      <c r="Y25" s="27">
-        <f>Y14/Y13</f>
+      <c r="Y27" s="27">
+        <f>Y16/Y15</f>
         <v>1.1365461847389557</v>
       </c>
-      <c r="Z25" s="27">
-        <f>Z14/Z13</f>
+      <c r="Z27" s="27">
+        <f>Z16/Z15</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="AA25" s="27">
-        <f>AA14/AA13</f>
+      <c r="AA27" s="27">
+        <f>AA16/AA15</f>
         <v>-5.3465346534653464E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>55</v>
+      <c r="B29" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="1">
+        <v>356</v>
+      </c>
+      <c r="D30" s="1">
+        <v>365</v>
+      </c>
+      <c r="E30" s="1">
+        <v>381</v>
+      </c>
+      <c r="F30" s="1">
+        <f>+Y30</f>
+        <v>406</v>
+      </c>
+      <c r="G30" s="1">
+        <v>422</v>
+      </c>
+      <c r="H30" s="1">
+        <v>433</v>
+      </c>
+      <c r="I30" s="1">
+        <v>456</v>
+      </c>
+      <c r="J30" s="1">
+        <f>+Z30</f>
+        <v>489</v>
+      </c>
+      <c r="K30" s="1">
+        <v>515</v>
+      </c>
+      <c r="L30" s="1">
+        <v>551</v>
+      </c>
+      <c r="M30" s="1">
+        <v>574</v>
+      </c>
+      <c r="N30" s="1">
+        <f>+AA30</f>
+        <v>602</v>
+      </c>
+      <c r="O30" s="1">
+        <v>615</v>
+      </c>
+      <c r="P30" s="1">
+        <v>626</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>406</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>489</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="49">
+        <f>+G30/C30-1</f>
+        <v>0.18539325842696619</v>
+      </c>
+      <c r="H31" s="49">
+        <f>+H30/D30-1</f>
+        <v>0.1863013698630136</v>
+      </c>
+      <c r="I31" s="49">
+        <f>+I30/E30-1</f>
+        <v>0.1968503937007875</v>
+      </c>
+      <c r="J31" s="49">
+        <f>+J30/F30-1</f>
+        <v>0.20443349753694573</v>
+      </c>
+      <c r="K31" s="49">
+        <f>+K30/G30-1</f>
+        <v>0.22037914691943139</v>
+      </c>
+      <c r="L31" s="49">
+        <f>+L30/H30-1</f>
+        <v>0.27251732101616621</v>
+      </c>
+      <c r="M31" s="49">
+        <f>+M30/I30-1</f>
+        <v>0.25877192982456143</v>
+      </c>
+      <c r="N31" s="49">
+        <f>+N30/J30-1</f>
+        <v>0.23108384458077702</v>
+      </c>
+      <c r="O31" s="49">
+        <f>+O30/K30-1</f>
+        <v>0.19417475728155331</v>
+      </c>
+      <c r="P31" s="49">
+        <f>+P30/L30-1</f>
+        <v>0.13611615245009068</v>
+      </c>
+      <c r="Z31" s="49">
+        <f>Z30/Y30-1</f>
+        <v>0.20443349753694573</v>
+      </c>
+      <c r="AA31" s="49">
+        <f>AA30/Z30-1</f>
+        <v>0.23108384458077702</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1">
+        <v>158</v>
+      </c>
+      <c r="D32" s="1">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1">
+        <v>172</v>
+      </c>
+      <c r="F32" s="1">
+        <f>+Y32</f>
+        <v>180</v>
+      </c>
+      <c r="G32" s="1">
+        <v>182</v>
+      </c>
+      <c r="H32" s="1">
+        <v>188</v>
+      </c>
+      <c r="I32" s="1">
+        <v>195</v>
+      </c>
+      <c r="J32" s="1">
+        <f>+Z32</f>
+        <v>205</v>
+      </c>
+      <c r="K32" s="1">
+        <v>210</v>
+      </c>
+      <c r="L32" s="1">
+        <v>220</v>
+      </c>
+      <c r="M32" s="1">
+        <v>226</v>
+      </c>
+      <c r="N32" s="1">
+        <f>+AA32</f>
+        <v>236</v>
+      </c>
+      <c r="O32" s="1">
+        <v>239</v>
+      </c>
+      <c r="P32" s="1">
+        <v>246</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>180</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>205</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="49">
+        <f>+G32/C32-1</f>
+        <v>0.15189873417721511</v>
+      </c>
+      <c r="H33" s="49">
+        <f>+H32/D32-1</f>
+        <v>0.1393939393939394</v>
+      </c>
+      <c r="I33" s="49">
+        <f>+I32/E32-1</f>
+        <v>0.13372093023255816</v>
+      </c>
+      <c r="J33" s="49">
+        <f>+J32/F32-1</f>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="K33" s="49">
+        <f>+K32/G32-1</f>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="L33" s="49">
+        <f>+L32/H32-1</f>
+        <v>0.17021276595744683</v>
+      </c>
+      <c r="M33" s="49">
+        <f>+M32/I32-1</f>
+        <v>0.15897435897435908</v>
+      </c>
+      <c r="N33" s="49">
+        <f>+N32/J32-1</f>
+        <v>0.15121951219512186</v>
+      </c>
+      <c r="O33" s="49">
+        <f>+O32/K32-1</f>
+        <v>0.13809523809523805</v>
+      </c>
+      <c r="P33" s="49">
+        <f>+P32/L32-1</f>
+        <v>0.11818181818181817</v>
+      </c>
+      <c r="Z33" s="49">
+        <f>Z32/Y32-1</f>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="AA33" s="49">
+        <f>AA32/Z32-1</f>
+        <v>0.15121951219512186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1">
+        <v>208</v>
+      </c>
+      <c r="D34" s="1">
+        <v>210</v>
+      </c>
+      <c r="E34" s="1">
+        <v>220</v>
+      </c>
+      <c r="F34" s="1">
+        <f>+Y34</f>
+        <v>236</v>
+      </c>
+      <c r="G34" s="1">
+        <v>252</v>
+      </c>
+      <c r="H34" s="1">
+        <v>256</v>
+      </c>
+      <c r="I34" s="1">
+        <v>273</v>
+      </c>
+      <c r="J34" s="1">
+        <f>+Z34</f>
+        <v>295</v>
+      </c>
+      <c r="K34" s="1">
+        <v>317</v>
+      </c>
+      <c r="L34" s="1">
+        <v>343</v>
+      </c>
+      <c r="M34" s="1">
+        <v>361</v>
+      </c>
+      <c r="N34" s="1">
+        <f>+AA34</f>
+        <v>379</v>
+      </c>
+      <c r="O34" s="1">
+        <v>388</v>
+      </c>
+      <c r="P34" s="1">
+        <v>393</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>236</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>295</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="49">
+        <f>+G34/C34-1</f>
+        <v>0.21153846153846145</v>
+      </c>
+      <c r="H35" s="49">
+        <f>+H34/D34-1</f>
+        <v>0.21904761904761916</v>
+      </c>
+      <c r="I35" s="49">
+        <f>+I34/E34-1</f>
+        <v>0.24090909090909096</v>
+      </c>
+      <c r="J35" s="49">
+        <f>+J34/F34-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="K35" s="49">
+        <f>+K34/G34-1</f>
+        <v>0.25793650793650791</v>
+      </c>
+      <c r="L35" s="49">
+        <f>+L34/H34-1</f>
+        <v>0.33984375</v>
+      </c>
+      <c r="M35" s="49">
+        <f>+M34/I34-1</f>
+        <v>0.32234432234432231</v>
+      </c>
+      <c r="N35" s="49">
+        <f>+N34/J34-1</f>
+        <v>0.28474576271186436</v>
+      </c>
+      <c r="O35" s="49">
+        <f>+O34/K34-1</f>
+        <v>0.22397476340694</v>
+      </c>
+      <c r="P35" s="49">
+        <f>+P34/L34-1</f>
+        <v>0.14577259475218662</v>
+      </c>
+      <c r="Z35" s="49">
+        <f>Z34/Y34-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AA35" s="49">
+        <f>AA34/Z34-1</f>
+        <v>0.28474576271186436</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="F36" s="1">
+        <f>+Y36</f>
+        <v>4.29</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="J36" s="1">
+        <f>+Z36</f>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M36" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="N36" s="1">
+        <f>+AA36</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="P36" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>705</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>785</v>
+      </c>
+      <c r="AA38" s="17">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>1654</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>2043</v>
+      </c>
+      <c r="AA39" s="17">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y40" s="17">
+        <v>3175</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>4169</v>
+      </c>
+      <c r="AA40" s="17">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y41" s="17">
+        <v>1083</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>1362</v>
+      </c>
+      <c r="AA41" s="17">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y42" s="26">
+        <f>+SUM(Y38:Y41)</f>
+        <v>6617</v>
+      </c>
+      <c r="Z42" s="26">
+        <f>+SUM(Z38:Z41)</f>
+        <v>8359</v>
+      </c>
+      <c r="AA42" s="26">
+        <f>+SUM(AA38:AA41)</f>
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z43" s="44">
+        <f>+Z42/Y42-1</f>
+        <v>0.26326129666011777</v>
+      </c>
+      <c r="AA43" s="44">
+        <f>+AA42/Z42-1</f>
+        <v>9.1398492642660534E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B45" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="17">
+        <v>300</v>
+      </c>
+      <c r="P46" s="17">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="17">
+        <v>247</v>
+      </c>
+      <c r="P47" s="17">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="17">
-        <v>300</v>
-      </c>
-      <c r="P37" s="17">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N38" s="17">
-        <v>247</v>
-      </c>
-      <c r="P38" s="17">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N39" s="17">
+      <c r="N48" s="17">
         <f>1137+84</f>
         <v>1221</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P48" s="17">
         <f>1167+68</f>
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N40" s="26">
+    <row r="49" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="26">
         <v>1215</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P49" s="26">
         <v>1931</v>
       </c>
     </row>
-    <row r="41" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N41" s="17">
+    <row r="50" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" s="17">
         <v>75</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P50" s="17">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="17">
+    <row r="51" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="17">
         <v>0</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P51" s="17">
         <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N43" s="17">
-        <v>28</v>
-      </c>
-      <c r="P43" s="17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N44" s="17">
-        <v>858</v>
-      </c>
-      <c r="P44" s="17">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="17">
-        <v>20</v>
-      </c>
-      <c r="P45" s="17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46" s="26">
-        <v>1100</v>
-      </c>
-      <c r="P46" s="26">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="26">
-        <v>3114</v>
-      </c>
-      <c r="P47" s="26">
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N48" s="17">
-        <v>168</v>
-      </c>
-      <c r="P48" s="17">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N49" s="17">
-        <f>SUM(N37:N48)</f>
-        <v>8346</v>
-      </c>
-      <c r="P49" s="17">
-        <f>SUM(P37:P48)</f>
-        <v>10146</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" s="26">
-        <v>1203</v>
-      </c>
-      <c r="P51" s="26">
-        <v>1323</v>
       </c>
     </row>
     <row r="52" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="N52" s="17">
-        <v>493</v>
+        <v>28</v>
       </c>
       <c r="P52" s="17">
-        <v>472</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N53" s="17">
-        <v>26</v>
+        <v>858</v>
       </c>
       <c r="P53" s="17">
-        <v>11</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="N54" s="17">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P54" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N55" s="17">
-        <v>8</v>
-      </c>
-      <c r="P55" s="17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N56" s="17">
-        <v>978</v>
-      </c>
-      <c r="P56" s="17">
-        <v>1091</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" s="26">
+        <v>1100</v>
+      </c>
+      <c r="P55" s="26">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="26">
+        <v>3114</v>
+      </c>
+      <c r="P56" s="26">
+        <v>4054</v>
       </c>
     </row>
     <row r="57" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N57" s="17">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="P57" s="17">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N58" s="17">
-        <v>622</v>
+        <f>SUM(N46:N57)</f>
+        <v>8346</v>
       </c>
       <c r="P58" s="17">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="N59" s="17">
-        <v>2440</v>
-      </c>
-      <c r="P59" s="17">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N60" s="17">
-        <v>21</v>
-      </c>
-      <c r="P60" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N61" s="26">
-        <v>17</v>
-      </c>
-      <c r="P61" s="26">
-        <v>47</v>
+        <f>SUM(P46:P57)</f>
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N60" s="26">
+        <v>1203</v>
+      </c>
+      <c r="P60" s="26">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N61" s="17">
+        <v>493</v>
+      </c>
+      <c r="P61" s="17">
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N62" s="17">
-        <f>SUM(N51:N61)</f>
-        <v>5823</v>
+        <v>26</v>
       </c>
       <c r="P62" s="17">
-        <f>SUM(P51:P61)</f>
-        <v>5887</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N63" s="17">
+        <v>3</v>
+      </c>
+      <c r="P63" s="17">
+        <v>3</v>
+      </c>
+    </row>
     <row r="64" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N64" s="17">
-        <v>2523</v>
+        <v>8</v>
       </c>
       <c r="P64" s="17">
-        <v>4259</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N65" s="17">
-        <f>N64+N62</f>
+        <v>978</v>
+      </c>
+      <c r="P65" s="17">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="17">
+        <v>12</v>
+      </c>
+      <c r="P66" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N67" s="17">
+        <v>622</v>
+      </c>
+      <c r="P67" s="17">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N68" s="17">
+        <v>2440</v>
+      </c>
+      <c r="P68" s="17">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N69" s="17">
+        <v>21</v>
+      </c>
+      <c r="P69" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="N70" s="26">
+        <v>17</v>
+      </c>
+      <c r="P70" s="26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N71" s="17">
+        <f>SUM(N60:N70)</f>
+        <v>5823</v>
+      </c>
+      <c r="P71" s="17">
+        <f>SUM(P60:P70)</f>
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" s="17">
+        <v>2523</v>
+      </c>
+      <c r="P73" s="17">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N74" s="17">
+        <f>N73+N71</f>
         <v>8346</v>
       </c>
-      <c r="P65" s="17">
-        <f>P64+P62</f>
+      <c r="P74" s="17">
+        <f>P73+P71</f>
         <v>10146</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N67" s="17"/>
-      <c r="P67" s="17">
-        <f>P49-P62</f>
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P68" s="1">
-        <f>P67/P17</f>
-        <v>21.299348048910705</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N70" s="17">
-        <f>+N40+N46+N47</f>
-        <v>5429</v>
-      </c>
-      <c r="P70" s="17">
-        <f>+P40+P46+P47</f>
-        <v>7329</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N71" s="17">
-        <f>+N51+N61</f>
-        <v>1220</v>
-      </c>
-      <c r="P71" s="17">
-        <f>+P51+P61</f>
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="17">
-        <f>N70-N71</f>
-        <v>4209</v>
-      </c>
-      <c r="P72" s="17">
-        <f>P70-P71</f>
-        <v>5959</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="N76" s="17"/>
+      <c r="P76" s="17">
+        <f>P58-P71</f>
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P77" s="1">
+        <f>P76/P19</f>
+        <v>21.299348048910705</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="N79" s="17">
+        <f>+N49+N55+N56</f>
+        <v>5429</v>
+      </c>
+      <c r="P79" s="17">
+        <f>+P49+P55+P56</f>
+        <v>7329</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
+      </c>
+      <c r="N80" s="17">
+        <f>+N60+N70</f>
+        <v>1220</v>
+      </c>
+      <c r="P80" s="17">
+        <f>+P60+P70</f>
+        <v>1370</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="N81" s="17">
+        <f>N79-N80</f>
+        <v>4209</v>
+      </c>
+      <c r="P81" s="17">
+        <f>P79-P80</f>
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B85" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K86" s="1">
-        <v>59</v>
-      </c>
-      <c r="L86" s="1">
-        <f>72-K86</f>
-        <v>13</v>
-      </c>
-      <c r="M86" s="1">
-        <f>283-SUM(K86:L86)</f>
-        <v>211</v>
-      </c>
-      <c r="N86" s="1">
-        <f>AA86-SUM(K86:M86)</f>
-        <v>397</v>
-      </c>
-      <c r="O86" s="1">
-        <v>211</v>
-      </c>
-      <c r="P86" s="1">
-        <f>703-O86</f>
-        <v>492</v>
-      </c>
-      <c r="Y86" s="1">
-        <v>361</v>
-      </c>
-      <c r="Z86" s="1">
-        <v>46</v>
-      </c>
-      <c r="AA86" s="1">
-        <v>680</v>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K87" s="1">
-        <v>2</v>
-      </c>
-      <c r="L87" s="1">
-        <f>4-K87</f>
-        <v>2</v>
-      </c>
-      <c r="M87" s="1">
-        <f>5-SUM(K87:L87)</f>
-        <v>1</v>
-      </c>
-      <c r="N87" s="1">
-        <f>AA87-SUM(K87:M87)</f>
-        <v>1</v>
-      </c>
-      <c r="O87" s="1">
-        <v>5</v>
-      </c>
-      <c r="P87" s="1">
-        <f>7-O87</f>
-        <v>2</v>
-      </c>
-      <c r="Y87" s="1">
-        <v>85</v>
-      </c>
-      <c r="Z87" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA87" s="1">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K88" s="1">
-        <f>K86-K87</f>
-        <v>57</v>
-      </c>
-      <c r="L88" s="1">
-        <f>L86-L87</f>
-        <v>11</v>
-      </c>
-      <c r="M88" s="1">
-        <f>M86-M87</f>
-        <v>210</v>
-      </c>
-      <c r="N88" s="1">
-        <f>N86-N87</f>
-        <v>396</v>
-      </c>
-      <c r="O88" s="1">
-        <f>O86-O87</f>
-        <v>206</v>
-      </c>
-      <c r="P88" s="1">
-        <f>P86-P87</f>
-        <v>490</v>
-      </c>
-      <c r="Y88" s="1">
-        <f>Y86-Y87</f>
-        <v>276</v>
-      </c>
-      <c r="Z88" s="1">
-        <f>Z86-Z87</f>
-        <v>21</v>
-      </c>
-      <c r="AA88" s="1">
-        <f>AA86-AA87</f>
-        <v>674</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K90" s="1">
-        <f>K88/K17</f>
-        <v>0.29447858541910876</v>
-      </c>
-      <c r="L90" s="1">
-        <f>L88/L17</f>
-        <v>5.6578504052831401E-2</v>
-      </c>
-      <c r="M90" s="1">
-        <f>M88/M17</f>
-        <v>1.0775766796766262</v>
-      </c>
-      <c r="N90" s="1">
-        <f>N88/N17</f>
-        <v>2.0335609031771122</v>
-      </c>
-      <c r="O90" s="1">
-        <f>O88/O17</f>
-        <v>1.0402702973702533</v>
-      </c>
-      <c r="P90" s="1">
-        <f>P88/P17</f>
-        <v>2.4505002451200388</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B94" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K95" s="1">
+        <v>59</v>
+      </c>
+      <c r="L95" s="1">
+        <f>72-K95</f>
+        <v>13</v>
+      </c>
+      <c r="M95" s="1">
+        <f>283-SUM(K95:L95)</f>
+        <v>211</v>
+      </c>
+      <c r="N95" s="1">
+        <f>AA95-SUM(K95:M95)</f>
+        <v>397</v>
+      </c>
+      <c r="O95" s="1">
+        <v>211</v>
+      </c>
+      <c r="P95" s="1">
+        <f>703-O95</f>
+        <v>492</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>361</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2</v>
+      </c>
+      <c r="L96" s="1">
+        <f>4-K96</f>
+        <v>2</v>
+      </c>
+      <c r="M96" s="1">
+        <f>5-SUM(K96:L96)</f>
+        <v>1</v>
+      </c>
+      <c r="N96" s="1">
+        <f>AA96-SUM(K96:M96)</f>
+        <v>1</v>
+      </c>
+      <c r="O96" s="1">
+        <v>5</v>
+      </c>
+      <c r="P96" s="1">
+        <f>7-O96</f>
+        <v>2</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>85</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" ref="K97:P97" si="12">K95-K96</f>
+        <v>57</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="12"/>
+        <v>210</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="12"/>
+        <v>396</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="12"/>
+        <v>206</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="12"/>
+        <v>490</v>
+      </c>
+      <c r="Y97" s="1">
+        <f>Y95-Y96</f>
+        <v>276</v>
+      </c>
+      <c r="Z97" s="1">
+        <f>Z95-Z96</f>
+        <v>21</v>
+      </c>
+      <c r="AA97" s="1">
+        <f>AA95-AA96</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" ref="K99:P99" si="13">K97/K19</f>
+        <v>0.29447858541910876</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="13"/>
+        <v>5.6578504052831401E-2</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0775766796766262</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="13"/>
+        <v>2.0335609031771122</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0402702973702533</v>
+      </c>
+      <c r="P99" s="1">
+        <f t="shared" si="13"/>
+        <v>2.4505002451200388</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3314,12 +4560,32 @@
     <hyperlink ref="AA1" r:id="rId3" xr:uid="{4E0D9137-3DBE-4E8B-BDE9-045CDC9EC012}"/>
     <hyperlink ref="N1" r:id="rId4" xr:uid="{EC2419FD-8B8D-45FB-92A3-C1F913E6AB48}"/>
     <hyperlink ref="M1" r:id="rId5" xr:uid="{09C77A37-9A10-4E67-BE11-FEB47923ED6E}"/>
+    <hyperlink ref="H1" r:id="rId6" xr:uid="{D41EEB08-11F5-44A0-AE7C-6D2A90771DA1}"/>
+    <hyperlink ref="G1" r:id="rId7" xr:uid="{B826FA8F-1C74-496D-8D94-CD8D3D7C295B}"/>
+    <hyperlink ref="E1" r:id="rId8" xr:uid="{8F38F335-CB1A-4AF1-82E9-A4C1724F4702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="N6:N15" formula="1"/>
+    <ignoredError sqref="N8:N17 J6:J8 J12 J15 J17 N31:N36 F8:F19 J31:J35" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290015E-DEF9-4CFE-B48D-701F5ECD57F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/$SPOT.xlsx
+++ b/$SPOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85210E5C-5324-48BB-B3E8-8F45FFD55A61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C9EF5-FE6C-4855-961E-C355102DE885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1260" windowWidth="27165" windowHeight="14100" xr2:uid="{1B36FFFD-D458-4A57-865C-CCAC07CF1B21}"/>
+    <workbookView xWindow="1635" yWindow="1260" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{1B36FFFD-D458-4A57-865C-CCAC07CF1B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -717,33 +717,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -759,9 +732,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -850,16 +854,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -874,8 +878,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="9525"/>
-          <a:ext cx="0" cy="17602200"/>
+          <a:off x="11039475" y="19050"/>
+          <a:ext cx="0" cy="19059525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1221,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F128B0A2-1082-4847-9887-54638A561483}">
   <dimension ref="A2:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1241,31 +1245,31 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="G5" s="35" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="G5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>400.68</v>
+        <v>450</v>
       </c>
       <c r="D6" s="15"/>
       <c r="G6" s="13"/>
@@ -1284,12 +1288,13 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>201</v>
+      <c r="C7" s="17">
+        <f>+'Financial Model'!Q19</f>
+        <v>201.575568</v>
       </c>
       <c r="D7" s="15" t="str">
         <f>$C$30</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
@@ -1309,7 +1314,7 @@
       </c>
       <c r="C8" s="17">
         <f>C6*C7</f>
-        <v>80536.680000000008</v>
+        <v>90709.005600000004</v>
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="13"/>
@@ -1329,12 +1334,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="17">
-        <f>'Financial Model'!P79</f>
-        <v>7329</v>
+        <f>+'Financial Model'!Q79</f>
+        <v>7684</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$30</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
@@ -1353,12 +1358,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="17">
-        <f>'Financial Model'!P80</f>
-        <v>1370</v>
+        <f>+'Financial Model'!Q80</f>
+        <v>1362</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G10" s="22">
         <v>45566</v>
@@ -1382,11 +1387,11 @@
       </c>
       <c r="C11" s="17">
         <f>C9-C10</f>
-        <v>5959</v>
+        <v>6322</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
@@ -1406,7 +1411,7 @@
       </c>
       <c r="C12" s="18">
         <f>C8-C11</f>
-        <v>74577.680000000008</v>
+        <v>84387.005600000004</v>
       </c>
       <c r="D12" s="16"/>
       <c r="G12" s="13"/>
@@ -1448,11 +1453,11 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1472,10 +1477,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1492,10 +1497,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1512,10 +1517,10 @@
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1535,10 +1540,10 @@
       <c r="B19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="44"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1578,11 +1583,11 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="G22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1599,10 +1604,10 @@
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="42"/>
       <c r="G23" s="13"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1619,10 +1624,10 @@
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="48">
         <v>2006</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="42"/>
       <c r="G24" s="13"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1639,10 +1644,10 @@
       <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="48">
         <v>2018</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="42"/>
       <c r="G25" s="13"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1657,8 +1662,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="42"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1675,11 +1680,11 @@
       <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="42">
-        <f>+'Financial Model'!P30</f>
-        <v>626</v>
-      </c>
-      <c r="D27" s="43"/>
+      <c r="C27" s="48">
+        <f>+'Financial Model'!Q30</f>
+        <v>640</v>
+      </c>
+      <c r="D27" s="42"/>
       <c r="G27" s="13"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1696,11 +1701,11 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="49">
         <f>+'Financial Model'!AA42</f>
         <v>9123</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="42"/>
       <c r="G28" s="13"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1715,8 +1720,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="42"/>
       <c r="G29" s="13"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1734,10 +1739,11 @@
         <v>19</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D30" s="31">
-        <v>45480</v>
+        <f>+'Financial Model'!Q3</f>
+        <v>45608</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="6"/>
@@ -1755,8 +1761,8 @@
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="G31" s="14"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -1770,31 +1776,31 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="38">
-        <f>C6/('Financial Model'!P19*[1]Currencies!$C$4)</f>
-        <v>1.8383569335605636</v>
-      </c>
-      <c r="D35" s="39"/>
+      <c r="C35" s="50">
+        <f>C6/('Financial Model'!Q19*[1]Currencies!$C$4)</f>
+        <v>2.048085692097604</v>
+      </c>
+      <c r="D35" s="51"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="38">
-        <f>C8/(SUM('Financial Model'!M8:P8)*[1]Currencies!$C$4)</f>
-        <v>18.559875002592591</v>
-      </c>
-      <c r="D36" s="39"/>
+      <c r="C36" s="50">
+        <f>C8/(SUM('Financial Model'!N8:Q8)*[1]Currencies!$C$4)</f>
+        <v>19.19263634517079</v>
+      </c>
+      <c r="D36" s="51"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
@@ -1807,11 +1813,11 @@
       <c r="B38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="38">
-        <f>C6/(SUM('Financial Model'!M18:P18)*[1]Currencies!$C$4)</f>
-        <v>157.14824811618186</v>
-      </c>
-      <c r="D38" s="39"/>
+      <c r="C38" s="50">
+        <f>C6/(SUM('Financial Model'!N18:Q18)*[1]Currencies!$C$4)</f>
+        <v>118.16107002434873</v>
+      </c>
+      <c r="D38" s="51"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
@@ -1824,14 +1830,19 @@
       <c r="B40" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="38">
-        <f>C6/('Financial Model'!P99*[1]Currencies!$C$4)</f>
-        <v>150.00868945321099</v>
-      </c>
-      <c r="D40" s="39"/>
+      <c r="C40" s="50">
+        <f>C6/('Financial Model'!Q99*[1]Currencies!$C$4)</f>
+        <v>117.04538845662525</v>
+      </c>
+      <c r="D40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="G5:Q5"/>
@@ -1848,11 +1859,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1863,11 +1869,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D2AD3C-DB9E-4895-A895-31060AA5F6CC}">
   <dimension ref="B1:AH100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
+      <selection pane="bottomRight" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2015,6 +2021,9 @@
       <c r="P2" s="23">
         <v>45473</v>
       </c>
+      <c r="Q2" s="23">
+        <v>45565</v>
+      </c>
       <c r="Y2" s="23">
         <v>44561</v>
       </c>
@@ -2045,125 +2054,134 @@
       <c r="P3" s="24">
         <v>45474</v>
       </c>
+      <c r="Q3" s="52">
+        <v>45608</v>
+      </c>
       <c r="AA3" s="32">
         <v>45330</v>
       </c>
     </row>
-    <row r="4" spans="2:34" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="38">
         <v>1931</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="38">
         <v>2056</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="38">
         <v>2178</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="38">
         <f>+Y4-SUM(C4:E4)</f>
         <v>2295</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="38">
         <v>2379</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="38">
         <v>2504</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="38">
         <v>2651</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="38">
         <f>+Z4-SUM(G4:I4)</f>
         <v>2717</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="38">
         <v>2713</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="38">
         <v>2773</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="38">
         <v>2910</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="38">
         <f>+AA4-SUM(K4:M4)</f>
         <v>3170</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="38">
         <v>3247</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="38">
         <v>3351</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="Q4" s="38">
+        <v>3516</v>
+      </c>
+      <c r="Y4" s="38">
         <v>8460</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4" s="38">
         <v>10251</v>
       </c>
-      <c r="AA4" s="47">
+      <c r="AA4" s="38">
         <v>11566</v>
       </c>
     </row>
-    <row r="5" spans="2:34" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:34" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="38">
         <v>216</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="38">
         <v>275</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="38">
         <v>323</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="38">
         <f>+Y5-SUM(C5:E5)</f>
         <v>394</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="38">
         <v>282</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="38">
         <v>360</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="38">
         <v>385</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="38">
         <f>+Z5-SUM(G5:I5)</f>
         <v>449</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="38">
         <v>329</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="38">
         <v>404</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="38">
         <v>447</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="38">
         <f>+AA5-SUM(K5:M5)</f>
         <v>501</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="38">
         <v>389</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="38">
         <v>456</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="Q5" s="38">
+        <v>472</v>
+      </c>
+      <c r="Y5" s="38">
         <v>1208</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="Z5" s="38">
         <v>1476</v>
       </c>
-      <c r="AA5" s="47">
+      <c r="AA5" s="38">
         <v>1681</v>
       </c>
     </row>
@@ -2217,8 +2235,7 @@
         <v>3807</v>
       </c>
       <c r="Q6" s="26">
-        <f>+P6*1.2</f>
-        <v>4568.3999999999996</v>
+        <v>3988</v>
       </c>
       <c r="Y6" s="26">
         <v>9668</v>
@@ -2279,6 +2296,9 @@
       <c r="P7" s="17">
         <v>2695</v>
       </c>
+      <c r="Q7" s="17">
+        <v>2748</v>
+      </c>
       <c r="Y7" s="17">
         <v>7077</v>
       </c>
@@ -2294,60 +2314,64 @@
         <v>34</v>
       </c>
       <c r="C8" s="26">
-        <f>C6-C7</f>
+        <f t="shared" ref="C8:Q8" si="0">C6-C7</f>
         <v>548</v>
       </c>
       <c r="D8" s="26">
-        <f>D6-D7</f>
+        <f t="shared" si="0"/>
         <v>663</v>
       </c>
       <c r="E8" s="26">
-        <f>E6-E7</f>
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
       <c r="F8" s="26">
-        <f>F6-F7</f>
+        <f t="shared" si="0"/>
         <v>712</v>
       </c>
       <c r="G8" s="26">
-        <f>G6-G7</f>
+        <f t="shared" si="0"/>
         <v>671</v>
       </c>
       <c r="H8" s="26">
-        <f>H6-H7</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="I8" s="26">
-        <f>I6-I7</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="J8" s="26">
-        <f>J6-J7</f>
+        <f t="shared" si="0"/>
         <v>801</v>
       </c>
       <c r="K8" s="26">
-        <f>K6-K7</f>
+        <f t="shared" si="0"/>
         <v>766</v>
       </c>
       <c r="L8" s="26">
-        <f>L6-L7</f>
+        <f t="shared" si="0"/>
         <v>766</v>
       </c>
       <c r="M8" s="26">
-        <f>M6-M7</f>
+        <f t="shared" si="0"/>
         <v>885</v>
       </c>
       <c r="N8" s="26">
-        <f>N6-N7</f>
+        <f t="shared" si="0"/>
         <v>980</v>
       </c>
       <c r="O8" s="26">
-        <f>O6-O7</f>
+        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="P8" s="26">
-        <f>P6-P7</f>
+        <f t="shared" si="0"/>
         <v>1112</v>
+      </c>
+      <c r="Q8" s="26">
+        <f t="shared" si="0"/>
+        <v>1240</v>
       </c>
       <c r="Y8" s="26">
         <f>Y6-Y7</f>
@@ -2376,7 +2400,7 @@
         <v>208</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" ref="F9:F11" si="0">+Y9-SUM(C9:E9)</f>
+        <f t="shared" ref="F9:F11" si="1">+Y9-SUM(C9:E9)</f>
         <v>253</v>
       </c>
       <c r="G9" s="17">
@@ -2389,7 +2413,7 @@
         <v>386</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" ref="J9:J11" si="1">+Z9-SUM(G9:I9)</f>
+        <f t="shared" ref="J9:J11" si="2">+Z9-SUM(G9:I9)</f>
         <v>415</v>
       </c>
       <c r="K9" s="17">
@@ -2402,7 +2426,7 @@
         <v>369</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" ref="N9:N11" si="2">AA9-SUM(K9:M9)</f>
+        <f t="shared" ref="N9:N11" si="3">AA9-SUM(K9:M9)</f>
         <v>468</v>
       </c>
       <c r="O9" s="17">
@@ -2410,6 +2434,9 @@
       </c>
       <c r="P9" s="17">
         <v>379</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>342</v>
       </c>
       <c r="Y9" s="17">
         <v>912</v>
@@ -2435,7 +2462,7 @@
         <v>280</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
       <c r="G10" s="17">
@@ -2448,7 +2475,7 @@
         <v>432</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>453</v>
       </c>
       <c r="K10" s="17">
@@ -2461,7 +2488,7 @@
         <v>355</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>432</v>
       </c>
       <c r="O10" s="17">
@@ -2469,6 +2496,9 @@
       </c>
       <c r="P10" s="17">
         <v>343</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>332</v>
       </c>
       <c r="Y10" s="17">
         <v>1135</v>
@@ -2494,7 +2524,7 @@
         <v>105</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="G11" s="17">
@@ -2507,7 +2537,7 @@
         <v>160</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="K11" s="17">
@@ -2520,7 +2550,7 @@
         <v>129</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="O11" s="17">
@@ -2528,6 +2558,9 @@
       </c>
       <c r="P11" s="17">
         <v>124</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>112</v>
       </c>
       <c r="Y11" s="17">
         <v>450</v>
@@ -2544,60 +2577,64 @@
         <v>38</v>
       </c>
       <c r="C12" s="26">
-        <f>C8-C9-C10-C11</f>
+        <f t="shared" ref="C12:J12" si="4">C8-C9-C10-C11</f>
         <v>14</v>
       </c>
       <c r="D12" s="26">
-        <f>D8-D9-D10-D11</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E12" s="26">
-        <f>E8-E9-E10-E11</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F12" s="26">
-        <f>F8-F9-F10-F11</f>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
       <c r="G12" s="26">
-        <f>G8-G9-G10-G11</f>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="H12" s="26">
-        <f>H8-H9-H10-H11</f>
+        <f t="shared" si="4"/>
         <v>-194</v>
       </c>
       <c r="I12" s="26">
-        <f>I8-I9-I10-I11</f>
+        <f t="shared" si="4"/>
         <v>-228</v>
       </c>
       <c r="J12" s="26">
-        <f>J8-J9-J10-J11</f>
+        <f t="shared" si="4"/>
         <v>-231</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" ref="K12:P12" si="3">K8-K9-K10-K11</f>
+        <f t="shared" ref="K12:Q12" si="5">K8-K9-K10-K11</f>
         <v>-156</v>
       </c>
       <c r="L12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-247</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-75</v>
       </c>
       <c r="O12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="P12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266</v>
+      </c>
+      <c r="Q12" s="26">
+        <f t="shared" si="5"/>
+        <v>454</v>
       </c>
       <c r="Y12" s="26">
         <f>Y8-Y9-Y10-Y11</f>
@@ -2626,7 +2663,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" ref="F13:F16" si="4">+Y13-SUM(C13:E13)</f>
+        <f t="shared" ref="F13:F16" si="6">+Y13-SUM(C13:E13)</f>
         <v>20</v>
       </c>
       <c r="G13" s="17">
@@ -2639,7 +2676,7 @@
         <v>102</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" ref="J13:J14" si="5">+Z13-SUM(G13:I13)</f>
+        <f t="shared" ref="J13:J14" si="7">+Z13-SUM(G13:I13)</f>
         <v>26</v>
       </c>
       <c r="K13" s="17">
@@ -2652,7 +2689,7 @@
         <v>55</v>
       </c>
       <c r="N13" s="17">
-        <f t="shared" ref="N13:N14" si="6">AA13-SUM(K13:M13)</f>
+        <f t="shared" ref="N13:N14" si="8">AA13-SUM(K13:M13)</f>
         <v>46</v>
       </c>
       <c r="O13" s="17">
@@ -2660,6 +2697,9 @@
       </c>
       <c r="P13" s="17">
         <v>76</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>66</v>
       </c>
       <c r="Y13" s="17">
         <v>246</v>
@@ -2685,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="G14" s="17">
@@ -2698,7 +2738,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="K14" s="17">
@@ -2711,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="N14" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="O14" s="17">
@@ -2719,6 +2759,9 @@
       </c>
       <c r="P14" s="17">
         <v>72</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>122</v>
       </c>
       <c r="Y14" s="17">
         <v>91</v>
@@ -2735,60 +2778,64 @@
         <v>41</v>
       </c>
       <c r="C15" s="17">
-        <f>C12+C13-C14</f>
+        <f t="shared" ref="C15:J15" si="9">C12+C13-C14</f>
         <v>87</v>
       </c>
       <c r="D15" s="17">
-        <f>D12+D13-D14</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E15" s="17">
-        <f>E12+E13-E14</f>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
       <c r="F15" s="17">
-        <f>F12+F13-F14</f>
+        <f t="shared" si="9"/>
         <v>-8</v>
       </c>
       <c r="G15" s="17">
-        <f>G12+G13-G14</f>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="H15" s="17">
-        <f>H12+H13-H14</f>
+        <f t="shared" si="9"/>
         <v>-90</v>
       </c>
       <c r="I15" s="17">
-        <f>I12+I13-I14</f>
+        <f t="shared" si="9"/>
         <v>-144</v>
       </c>
       <c r="J15" s="17">
-        <f>J12+J13-J14</f>
+        <f t="shared" si="9"/>
         <v>-291</v>
       </c>
       <c r="K15" s="17">
-        <f t="shared" ref="K15:P15" si="7">K12+K13-K14</f>
+        <f t="shared" ref="K15:Q15" si="10">K12+K13-K14</f>
         <v>-206</v>
       </c>
       <c r="L15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-241</v>
       </c>
       <c r="M15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="N15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-131</v>
       </c>
       <c r="O15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>270</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="10"/>
+        <v>398</v>
       </c>
       <c r="Y15" s="17">
         <f>Y12+Y13-Y14</f>
@@ -2817,7 +2864,7 @@
         <v>160</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="G16" s="17">
@@ -2852,6 +2899,9 @@
       <c r="P16" s="17">
         <v>-4</v>
       </c>
+      <c r="Q16" s="17">
+        <v>98</v>
+      </c>
       <c r="Y16" s="17">
         <v>283</v>
       </c>
@@ -2867,60 +2917,64 @@
         <v>43</v>
       </c>
       <c r="C17" s="26">
-        <f>C15-C16</f>
+        <f t="shared" ref="C17:J17" si="11">C15-C16</f>
         <v>23</v>
       </c>
       <c r="D17" s="26">
-        <f>D15-D16</f>
+        <f t="shared" si="11"/>
         <v>-20</v>
       </c>
       <c r="E17" s="26">
-        <f>E15-E16</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F17" s="26">
-        <f>F15-F16</f>
+        <f t="shared" si="11"/>
         <v>-39</v>
       </c>
       <c r="G17" s="26">
-        <f>G15-G16</f>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
       <c r="H17" s="26">
-        <f>H15-H16</f>
+        <f t="shared" si="11"/>
         <v>-125</v>
       </c>
       <c r="I17" s="26">
-        <f>I15-I16</f>
+        <f t="shared" si="11"/>
         <v>-166</v>
       </c>
       <c r="J17" s="26">
-        <f>J15-J16</f>
+        <f t="shared" si="11"/>
         <v>-270</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" ref="K17:P17" si="8">K15-K16</f>
+        <f t="shared" ref="K17:Q17" si="12">K15-K16</f>
         <v>-225</v>
       </c>
       <c r="L17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-302</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-70</v>
       </c>
       <c r="O17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>274</v>
+      </c>
+      <c r="Q17" s="26">
+        <f t="shared" si="12"/>
+        <v>300</v>
       </c>
       <c r="Y17" s="26">
         <f>Y15-Y16</f>
@@ -2940,60 +2994,64 @@
         <v>44</v>
       </c>
       <c r="C18" s="25">
-        <f>C17/C19</f>
+        <f t="shared" ref="C18:I18" si="13">C17/C19</f>
         <v>0.1206934751118536</v>
       </c>
       <c r="D18" s="25">
-        <f>D17/D19</f>
+        <f t="shared" si="13"/>
         <v>-0.10461731337236389</v>
       </c>
       <c r="E18" s="25">
-        <f>E17/E19</f>
+        <f t="shared" si="13"/>
         <v>1.0444656551048131E-2</v>
       </c>
       <c r="F18" s="25">
-        <f>F17/F19</f>
+        <f t="shared" si="13"/>
         <v>-0.20386997806364265</v>
       </c>
       <c r="G18" s="25">
-        <f>G17/G19</f>
+        <f t="shared" si="13"/>
         <v>0.6806042572928902</v>
       </c>
       <c r="H18" s="25">
-        <f>H17/H19</f>
+        <f t="shared" si="13"/>
         <v>-0.64784283469654669</v>
       </c>
       <c r="I18" s="25">
-        <f>I17/I19</f>
+        <f t="shared" si="13"/>
         <v>-0.85975912636125373</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" ref="J18:P18" si="9">J17/J19</f>
+        <f t="shared" ref="J18:Q18" si="14">J17/J19</f>
         <v>-1.3994360438602329</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.16241546875964</v>
       </c>
       <c r="L18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.5533371112686438</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.33353563894752719</v>
       </c>
       <c r="N18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.35946783642019664</v>
       </c>
       <c r="O18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.99482159505796064</v>
       </c>
       <c r="P18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.3702797289038584</v>
+      </c>
+      <c r="Q18" s="25">
+        <f t="shared" si="14"/>
+        <v>1.4882756029242592</v>
       </c>
       <c r="Y18" s="25">
         <f>Y17/Y19</f>
@@ -3057,6 +3115,9 @@
       <c r="P19" s="17">
         <v>199.959172</v>
       </c>
+      <c r="Q19" s="17">
+        <v>201.575568</v>
+      </c>
       <c r="Y19" s="17">
         <v>191.29839699999999</v>
       </c>
@@ -3084,44 +3145,48 @@
         <v>115</v>
       </c>
       <c r="G21" s="29">
-        <f>G6/C6-1</f>
+        <f t="shared" ref="G21:Q21" si="15">G6/C6-1</f>
         <v>0.23940381928272014</v>
       </c>
       <c r="H21" s="29">
-        <f>H6/D6-1</f>
+        <f t="shared" si="15"/>
         <v>0.2286572286572286</v>
       </c>
       <c r="I21" s="29">
-        <f>I6/E6-1</f>
+        <f t="shared" si="15"/>
         <v>0.21391443422630951</v>
       </c>
       <c r="J21" s="29">
-        <f>J6/F6-1</f>
+        <f t="shared" si="15"/>
         <v>0.17738936407586459</v>
       </c>
       <c r="K21" s="29">
-        <f>K6/G6-1</f>
+        <f t="shared" si="15"/>
         <v>0.14317925591882741</v>
       </c>
       <c r="L21" s="29">
-        <f>L6/H6-1</f>
+        <f t="shared" si="15"/>
         <v>0.10928770949720668</v>
       </c>
       <c r="M21" s="29">
-        <f>M6/I6-1</f>
+        <f t="shared" si="15"/>
         <v>0.10573122529644263</v>
       </c>
       <c r="N21" s="29">
-        <f>N6/J6-1</f>
+        <f t="shared" si="15"/>
         <v>0.15950726468730259</v>
       </c>
       <c r="O21" s="29">
-        <f>O6/K6-1</f>
+        <f t="shared" si="15"/>
         <v>0.19526627218934922</v>
       </c>
       <c r="P21" s="29">
-        <f>P6/L6-1</f>
+        <f t="shared" si="15"/>
         <v>0.19830028328611893</v>
+      </c>
+      <c r="Q21" s="29">
+        <f t="shared" si="15"/>
+        <v>0.18796544533809945</v>
       </c>
       <c r="V21" s="34" t="s">
         <v>115</v>
@@ -3143,56 +3208,60 @@
         <v>115</v>
       </c>
       <c r="D22" s="27">
-        <f>D6/C6-1</f>
+        <f t="shared" ref="D22:Q22" si="16">D6/C6-1</f>
         <v>8.5700978108989245E-2</v>
       </c>
       <c r="E22" s="27">
-        <f>E6/D6-1</f>
+        <f t="shared" si="16"/>
         <v>7.2930072930073031E-2</v>
       </c>
       <c r="F22" s="27">
-        <f>F6/E6-1</f>
+        <f t="shared" si="16"/>
         <v>7.5169932027189024E-2</v>
       </c>
       <c r="G22" s="27">
-        <f>G6/F6-1</f>
+        <f t="shared" si="16"/>
         <v>-1.0412792859799236E-2</v>
       </c>
       <c r="H22" s="27">
-        <f>H6/G6-1</f>
+        <f t="shared" si="16"/>
         <v>7.6287110108981482E-2</v>
       </c>
       <c r="I22" s="27">
-        <f>I6/H6-1</f>
+        <f t="shared" si="16"/>
         <v>6.0055865921787799E-2</v>
       </c>
       <c r="J22" s="27">
-        <f>J6/I6-1</f>
+        <f t="shared" si="16"/>
         <v>4.2819499341238521E-2</v>
       </c>
       <c r="K22" s="27">
-        <f>K6/J6-1</f>
+        <f t="shared" si="16"/>
         <v>-3.9166140240050495E-2</v>
       </c>
       <c r="L22" s="27">
-        <f>L6/K6-1</f>
+        <f t="shared" si="16"/>
         <v>4.4378698224851965E-2</v>
       </c>
       <c r="M22" s="27">
-        <f>M6/L6-1</f>
+        <f t="shared" si="16"/>
         <v>5.6657223796033884E-2</v>
       </c>
       <c r="N22" s="27">
-        <f>N6/M6-1</f>
+        <f t="shared" si="16"/>
         <v>9.3535895144474246E-2</v>
       </c>
       <c r="O22" s="27">
-        <f>O6/N6-1</f>
+        <f t="shared" si="16"/>
         <v>-9.5341868700626886E-3</v>
       </c>
       <c r="P22" s="27">
-        <f>P6/O6-1</f>
+        <f t="shared" si="16"/>
         <v>4.7029702970297071E-2</v>
+      </c>
+      <c r="Q22" s="27">
+        <f t="shared" si="16"/>
+        <v>4.7543997898607859E-2</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>115</v>
@@ -3218,60 +3287,64 @@
         <v>47</v>
       </c>
       <c r="C24" s="27">
-        <f>C8/C6</f>
+        <f t="shared" ref="C24:P24" si="17">C8/C6</f>
         <v>0.25523986958546807</v>
       </c>
       <c r="D24" s="27">
-        <f>D8/D6</f>
+        <f t="shared" si="17"/>
         <v>0.28442728442728443</v>
       </c>
       <c r="E24" s="27">
-        <f>E8/E6</f>
+        <f t="shared" si="17"/>
         <v>0.26709316273490602</v>
       </c>
       <c r="F24" s="27">
-        <f>F8/F6</f>
+        <f t="shared" si="17"/>
         <v>0.26478244700632203</v>
       </c>
       <c r="G24" s="27">
-        <f>G8/G6</f>
+        <f t="shared" si="17"/>
         <v>0.25216084178880122</v>
       </c>
       <c r="H24" s="27">
-        <f>H8/H6</f>
+        <f t="shared" si="17"/>
         <v>0.24581005586592178</v>
       </c>
       <c r="I24" s="27">
-        <f>I8/I6</f>
+        <f t="shared" si="17"/>
         <v>0.24703557312252963</v>
       </c>
       <c r="J24" s="27">
-        <f>J8/J6</f>
+        <f t="shared" si="17"/>
         <v>0.25300063171193937</v>
       </c>
       <c r="K24" s="27">
-        <f>K8/K6</f>
+        <f t="shared" si="17"/>
         <v>0.2518080210387903</v>
       </c>
       <c r="L24" s="27">
-        <f>L8/L6</f>
+        <f t="shared" si="17"/>
         <v>0.24110796348756688</v>
       </c>
       <c r="M24" s="27">
-        <f>M8/M6</f>
+        <f t="shared" si="17"/>
         <v>0.26362823949955316</v>
       </c>
       <c r="N24" s="27">
-        <f>N8/N6</f>
+        <f t="shared" si="17"/>
         <v>0.26695723236175428</v>
       </c>
       <c r="O24" s="27">
-        <f>O8/O6</f>
+        <f t="shared" si="17"/>
         <v>0.27612761276127612</v>
       </c>
       <c r="P24" s="27">
-        <f>P8/P6</f>
+        <f t="shared" si="17"/>
         <v>0.29209351195166799</v>
+      </c>
+      <c r="Q24" s="27">
+        <f t="shared" ref="Q24" si="18">Q8/Q6</f>
+        <v>0.31093279839518556</v>
       </c>
       <c r="Y24" s="27">
         <f>Y8/Y6</f>
@@ -3291,60 +3364,64 @@
         <v>48</v>
       </c>
       <c r="C25" s="27">
-        <f>C12/C6</f>
+        <f t="shared" ref="C25:P25" si="19">C12/C6</f>
         <v>6.5207265952491851E-3</v>
       </c>
       <c r="D25" s="27">
-        <f>D12/D6</f>
+        <f t="shared" si="19"/>
         <v>5.1480051480051478E-3</v>
       </c>
       <c r="E25" s="27">
-        <f>E12/E6</f>
+        <f t="shared" si="19"/>
         <v>2.9988004798080767E-2</v>
       </c>
       <c r="F25" s="27">
-        <f>F12/F6</f>
+        <f t="shared" si="19"/>
         <v>-2.6031982149497955E-3</v>
       </c>
       <c r="G25" s="27">
-        <f>G12/G6</f>
+        <f t="shared" si="19"/>
         <v>-2.2547914317925591E-3</v>
       </c>
       <c r="H25" s="27">
-        <f>H12/H6</f>
+        <f t="shared" si="19"/>
         <v>-6.773743016759777E-2</v>
       </c>
       <c r="I25" s="27">
-        <f>I12/I6</f>
+        <f t="shared" si="19"/>
         <v>-7.5098814229249009E-2</v>
       </c>
       <c r="J25" s="27">
-        <f>J12/J6</f>
+        <f t="shared" si="19"/>
         <v>-7.2962728995578013E-2</v>
       </c>
       <c r="K25" s="27">
-        <f>K12/K6</f>
+        <f t="shared" si="19"/>
         <v>-5.128205128205128E-2</v>
       </c>
       <c r="L25" s="27">
-        <f>L12/L6</f>
+        <f t="shared" si="19"/>
         <v>-7.7746301542335541E-2</v>
       </c>
       <c r="M25" s="27">
-        <f>M12/M6</f>
+        <f t="shared" si="19"/>
         <v>9.5323205242776286E-3</v>
       </c>
       <c r="N25" s="27">
-        <f>N12/N6</f>
+        <f t="shared" si="19"/>
         <v>-2.0430400435848543E-2</v>
       </c>
       <c r="O25" s="27">
-        <f>O12/O6</f>
+        <f t="shared" si="19"/>
         <v>4.6204620462046202E-2</v>
       </c>
       <c r="P25" s="27">
-        <f>P12/P6</f>
+        <f t="shared" si="19"/>
         <v>6.9871289729445757E-2</v>
+      </c>
+      <c r="Q25" s="27">
+        <f t="shared" ref="Q25" si="20">Q12/Q6</f>
+        <v>0.11384152457372117</v>
       </c>
       <c r="Y25" s="27">
         <f>Y12/Y6</f>
@@ -3364,60 +3441,64 @@
         <v>49</v>
       </c>
       <c r="C26" s="27">
-        <f>C17/C6</f>
+        <f t="shared" ref="C26:P26" si="21">C17/C6</f>
         <v>1.0712622263623661E-2</v>
       </c>
       <c r="D26" s="27">
-        <f>D17/D6</f>
+        <f t="shared" si="21"/>
         <v>-8.5800085800085794E-3</v>
       </c>
       <c r="E26" s="27">
-        <f>E17/E6</f>
+        <f t="shared" si="21"/>
         <v>7.9968012794882047E-4</v>
       </c>
       <c r="F26" s="27">
-        <f>F17/F6</f>
+        <f t="shared" si="21"/>
         <v>-1.4503532911863145E-2</v>
       </c>
       <c r="G26" s="27">
-        <f>G17/G6</f>
+        <f t="shared" si="21"/>
         <v>4.9229612927470877E-2</v>
       </c>
       <c r="H26" s="27">
-        <f>H17/H6</f>
+        <f t="shared" si="21"/>
         <v>-4.3645251396648044E-2</v>
       </c>
       <c r="I26" s="27">
-        <f>I17/I6</f>
+        <f t="shared" si="21"/>
         <v>-5.4677206851119896E-2</v>
       </c>
       <c r="J26" s="27">
-        <f>J17/J6</f>
+        <f t="shared" si="21"/>
         <v>-8.5281111813013261E-2</v>
       </c>
       <c r="K26" s="27">
-        <f>K17/K6</f>
+        <f t="shared" si="21"/>
         <v>-7.3964497041420121E-2</v>
       </c>
       <c r="L26" s="27">
-        <f>L17/L6</f>
+        <f t="shared" si="21"/>
         <v>-9.5058231035568153E-2</v>
       </c>
       <c r="M26" s="27">
-        <f>M17/M6</f>
+        <f t="shared" si="21"/>
         <v>1.9362526064938934E-2</v>
       </c>
       <c r="N26" s="27">
-        <f>N17/N6</f>
+        <f t="shared" si="21"/>
         <v>-1.9068373740125308E-2</v>
       </c>
       <c r="O26" s="27">
-        <f>O17/O6</f>
+        <f t="shared" si="21"/>
         <v>5.4180418041804179E-2</v>
       </c>
       <c r="P26" s="27">
-        <f>P17/P6</f>
+        <f t="shared" si="21"/>
         <v>7.1972681901759913E-2</v>
+      </c>
+      <c r="Q26" s="27">
+        <f t="shared" ref="Q26" si="22">Q17/Q6</f>
+        <v>7.5225677031093285E-2</v>
       </c>
       <c r="Y26" s="27">
         <f>Y17/Y6</f>
@@ -3437,60 +3518,64 @@
         <v>50</v>
       </c>
       <c r="C27" s="27">
-        <f>C16/C15</f>
+        <f t="shared" ref="C27:I27" si="23">C16/C15</f>
         <v>0.73563218390804597</v>
       </c>
       <c r="D27" s="27">
-        <f>D16/D15</f>
+        <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
       <c r="E27" s="27">
-        <f>E16/E15</f>
+        <f t="shared" si="23"/>
         <v>0.98765432098765427</v>
       </c>
       <c r="F27" s="27">
-        <f>F16/F15</f>
+        <f t="shared" si="23"/>
         <v>-3.875</v>
       </c>
       <c r="G27" s="27">
-        <f>G16/G15</f>
+        <f t="shared" si="23"/>
         <v>0.15483870967741936</v>
       </c>
       <c r="H27" s="27">
-        <f>H16/H15</f>
+        <f t="shared" si="23"/>
         <v>-0.3888888888888889</v>
       </c>
       <c r="I27" s="27">
-        <f>I16/I15</f>
+        <f t="shared" si="23"/>
         <v>-0.15277777777777779</v>
       </c>
       <c r="J27" s="27">
-        <f t="shared" ref="J27" si="10">J16/J15</f>
+        <f t="shared" ref="J27" si="24">J16/J15</f>
         <v>7.2164948453608241E-2</v>
       </c>
       <c r="K27" s="27">
-        <f t="shared" ref="K27:P27" si="11">K16/K15</f>
+        <f t="shared" ref="K27:P27" si="25">K16/K15</f>
         <v>-9.2233009708737865E-2</v>
       </c>
       <c r="L27" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.25311203319502074</v>
       </c>
       <c r="M27" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.1095890410958904</v>
       </c>
       <c r="N27" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.46564885496183206</v>
       </c>
       <c r="O27" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-0.13218390804597702</v>
       </c>
       <c r="P27" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>-1.4814814814814815E-2</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" ref="Q27" si="26">Q16/Q15</f>
+        <v>0.24623115577889448</v>
       </c>
       <c r="Y27" s="27">
         <f>Y16/Y15</f>
@@ -3559,6 +3644,9 @@
       <c r="P30" s="1">
         <v>626</v>
       </c>
+      <c r="Q30" s="1">
+        <v>640</v>
+      </c>
       <c r="Y30" s="1">
         <v>406</v>
       </c>
@@ -3569,55 +3657,59 @@
         <v>602</v>
       </c>
     </row>
-    <row r="31" spans="2:27" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="48" t="s">
+    <row r="31" spans="2:27" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="49">
-        <f>+G30/C30-1</f>
+      <c r="G31" s="40">
+        <f t="shared" ref="G31:Q31" si="27">+G30/C30-1</f>
         <v>0.18539325842696619</v>
       </c>
-      <c r="H31" s="49">
-        <f>+H30/D30-1</f>
+      <c r="H31" s="40">
+        <f t="shared" si="27"/>
         <v>0.1863013698630136</v>
       </c>
-      <c r="I31" s="49">
-        <f>+I30/E30-1</f>
+      <c r="I31" s="40">
+        <f t="shared" si="27"/>
         <v>0.1968503937007875</v>
       </c>
-      <c r="J31" s="49">
-        <f>+J30/F30-1</f>
+      <c r="J31" s="40">
+        <f t="shared" si="27"/>
         <v>0.20443349753694573</v>
       </c>
-      <c r="K31" s="49">
-        <f>+K30/G30-1</f>
+      <c r="K31" s="40">
+        <f t="shared" si="27"/>
         <v>0.22037914691943139</v>
       </c>
-      <c r="L31" s="49">
-        <f>+L30/H30-1</f>
+      <c r="L31" s="40">
+        <f t="shared" si="27"/>
         <v>0.27251732101616621</v>
       </c>
-      <c r="M31" s="49">
-        <f>+M30/I30-1</f>
+      <c r="M31" s="40">
+        <f t="shared" si="27"/>
         <v>0.25877192982456143</v>
       </c>
-      <c r="N31" s="49">
-        <f>+N30/J30-1</f>
+      <c r="N31" s="40">
+        <f t="shared" si="27"/>
         <v>0.23108384458077702</v>
       </c>
-      <c r="O31" s="49">
-        <f>+O30/K30-1</f>
+      <c r="O31" s="40">
+        <f t="shared" si="27"/>
         <v>0.19417475728155331</v>
       </c>
-      <c r="P31" s="49">
-        <f>+P30/L30-1</f>
+      <c r="P31" s="40">
+        <f t="shared" si="27"/>
         <v>0.13611615245009068</v>
       </c>
-      <c r="Z31" s="49">
+      <c r="Q31" s="40">
+        <f t="shared" si="27"/>
+        <v>0.11498257839721249</v>
+      </c>
+      <c r="Z31" s="40">
         <f>Z30/Y30-1</f>
         <v>0.20443349753694573</v>
       </c>
-      <c r="AA31" s="49">
+      <c r="AA31" s="40">
         <f>AA30/Z30-1</f>
         <v>0.23108384458077702</v>
       </c>
@@ -3671,6 +3763,9 @@
       <c r="P32" s="1">
         <v>246</v>
       </c>
+      <c r="Q32" s="1">
+        <v>252</v>
+      </c>
       <c r="Y32" s="1">
         <v>180</v>
       </c>
@@ -3681,55 +3776,59 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="2:27" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="48" t="s">
+    <row r="33" spans="2:27" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="49">
-        <f>+G32/C32-1</f>
+      <c r="G33" s="40">
+        <f t="shared" ref="G33:Q33" si="28">+G32/C32-1</f>
         <v>0.15189873417721511</v>
       </c>
-      <c r="H33" s="49">
-        <f>+H32/D32-1</f>
+      <c r="H33" s="40">
+        <f t="shared" si="28"/>
         <v>0.1393939393939394</v>
       </c>
-      <c r="I33" s="49">
-        <f>+I32/E32-1</f>
+      <c r="I33" s="40">
+        <f t="shared" si="28"/>
         <v>0.13372093023255816</v>
       </c>
-      <c r="J33" s="49">
-        <f>+J32/F32-1</f>
+      <c r="J33" s="40">
+        <f t="shared" si="28"/>
         <v>0.13888888888888884</v>
       </c>
-      <c r="K33" s="49">
-        <f>+K32/G32-1</f>
+      <c r="K33" s="40">
+        <f t="shared" si="28"/>
         <v>0.15384615384615374</v>
       </c>
-      <c r="L33" s="49">
-        <f>+L32/H32-1</f>
+      <c r="L33" s="40">
+        <f t="shared" si="28"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="M33" s="49">
-        <f>+M32/I32-1</f>
+      <c r="M33" s="40">
+        <f t="shared" si="28"/>
         <v>0.15897435897435908</v>
       </c>
-      <c r="N33" s="49">
-        <f>+N32/J32-1</f>
+      <c r="N33" s="40">
+        <f t="shared" si="28"/>
         <v>0.15121951219512186</v>
       </c>
-      <c r="O33" s="49">
-        <f>+O32/K32-1</f>
+      <c r="O33" s="40">
+        <f t="shared" si="28"/>
         <v>0.13809523809523805</v>
       </c>
-      <c r="P33" s="49">
-        <f>+P32/L32-1</f>
+      <c r="P33" s="40">
+        <f t="shared" si="28"/>
         <v>0.11818181818181817</v>
       </c>
-      <c r="Z33" s="49">
+      <c r="Q33" s="40">
+        <f t="shared" si="28"/>
+        <v>0.11504424778761058</v>
+      </c>
+      <c r="Z33" s="40">
         <f>Z32/Y32-1</f>
         <v>0.13888888888888884</v>
       </c>
-      <c r="AA33" s="49">
+      <c r="AA33" s="40">
         <f>AA32/Z32-1</f>
         <v>0.15121951219512186</v>
       </c>
@@ -3783,6 +3882,9 @@
       <c r="P34" s="1">
         <v>393</v>
       </c>
+      <c r="Q34" s="1">
+        <v>402</v>
+      </c>
       <c r="Y34" s="1">
         <v>236</v>
       </c>
@@ -3793,55 +3895,59 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="2:27" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="48" t="s">
+    <row r="35" spans="2:27" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="49">
-        <f>+G34/C34-1</f>
+      <c r="G35" s="40">
+        <f t="shared" ref="G35:Q35" si="29">+G34/C34-1</f>
         <v>0.21153846153846145</v>
       </c>
-      <c r="H35" s="49">
-        <f>+H34/D34-1</f>
+      <c r="H35" s="40">
+        <f t="shared" si="29"/>
         <v>0.21904761904761916</v>
       </c>
-      <c r="I35" s="49">
-        <f>+I34/E34-1</f>
+      <c r="I35" s="40">
+        <f t="shared" si="29"/>
         <v>0.24090909090909096</v>
       </c>
-      <c r="J35" s="49">
-        <f>+J34/F34-1</f>
+      <c r="J35" s="40">
+        <f t="shared" si="29"/>
         <v>0.25</v>
       </c>
-      <c r="K35" s="49">
-        <f>+K34/G34-1</f>
+      <c r="K35" s="40">
+        <f t="shared" si="29"/>
         <v>0.25793650793650791</v>
       </c>
-      <c r="L35" s="49">
-        <f>+L34/H34-1</f>
+      <c r="L35" s="40">
+        <f t="shared" si="29"/>
         <v>0.33984375</v>
       </c>
-      <c r="M35" s="49">
-        <f>+M34/I34-1</f>
+      <c r="M35" s="40">
+        <f t="shared" si="29"/>
         <v>0.32234432234432231</v>
       </c>
-      <c r="N35" s="49">
-        <f>+N34/J34-1</f>
+      <c r="N35" s="40">
+        <f t="shared" si="29"/>
         <v>0.28474576271186436</v>
       </c>
-      <c r="O35" s="49">
-        <f>+O34/K34-1</f>
+      <c r="O35" s="40">
+        <f t="shared" si="29"/>
         <v>0.22397476340694</v>
       </c>
-      <c r="P35" s="49">
-        <f>+P34/L34-1</f>
+      <c r="P35" s="40">
+        <f t="shared" si="29"/>
         <v>0.14577259475218662</v>
       </c>
-      <c r="Z35" s="49">
+      <c r="Q35" s="40">
+        <f t="shared" si="29"/>
+        <v>0.11357340720221609</v>
+      </c>
+      <c r="Z35" s="40">
         <f>Z34/Y34-1</f>
         <v>0.25</v>
       </c>
-      <c r="AA35" s="49">
+      <c r="AA35" s="40">
         <f>AA34/Z34-1</f>
         <v>0.28474576271186436</v>
       </c>
@@ -3978,15 +4084,15 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="43" spans="2:27" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="45" t="s">
+    <row r="43" spans="2:27" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="Z43" s="44">
+      <c r="Z43" s="35">
         <f>+Z42/Y42-1</f>
         <v>0.26326129666011777</v>
       </c>
-      <c r="AA43" s="44">
+      <c r="AA43" s="35">
         <f>+AA42/Z42-1</f>
         <v>9.1398492642660534E-2</v>
       </c>
@@ -4006,6 +4112,9 @@
       <c r="P46" s="17">
         <v>254</v>
       </c>
+      <c r="Q46" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="47" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
@@ -4017,6 +4126,9 @@
       <c r="P47" s="17">
         <v>211</v>
       </c>
+      <c r="Q47" s="17">
+        <v>195</v>
+      </c>
     </row>
     <row r="48" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
@@ -4030,8 +4142,12 @@
         <f>1167+68</f>
         <v>1235</v>
       </c>
-    </row>
-    <row r="49" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q48" s="17">
+        <f>1128+58</f>
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="26" t="s">
         <v>58</v>
       </c>
@@ -4041,8 +4157,11 @@
       <c r="P49" s="26">
         <v>1931</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q49" s="26">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
         <v>59</v>
       </c>
@@ -4052,8 +4171,11 @@
       <c r="P50" s="17">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q50" s="17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
         <v>60</v>
       </c>
@@ -4063,8 +4185,11 @@
       <c r="P51" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
         <v>61</v>
       </c>
@@ -4074,8 +4199,11 @@
       <c r="P52" s="17">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="17">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
         <v>62</v>
       </c>
@@ -4085,8 +4213,11 @@
       <c r="P53" s="17">
         <v>753</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="17">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
         <v>42</v>
       </c>
@@ -4096,8 +4227,11 @@
       <c r="P54" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q54" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="26" t="s">
         <v>63</v>
       </c>
@@ -4107,8 +4241,11 @@
       <c r="P55" s="26">
         <v>1344</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="26">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="26" t="s">
         <v>6</v>
       </c>
@@ -4118,8 +4255,11 @@
       <c r="P56" s="26">
         <v>4054</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q56" s="26">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
         <v>64</v>
       </c>
@@ -4129,8 +4269,11 @@
       <c r="P57" s="17">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q57" s="17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
         <v>65</v>
       </c>
@@ -4142,9 +4285,13 @@
         <f>SUM(P46:P57)</f>
         <v>10146</v>
       </c>
-    </row>
-    <row r="59" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q58" s="17">
+        <f>SUM(Q46:Q57)</f>
+        <v>10553</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="26" t="s">
         <v>66</v>
       </c>
@@ -4154,8 +4301,11 @@
       <c r="P60" s="26">
         <v>1323</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="26">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
         <v>67</v>
       </c>
@@ -4165,8 +4315,11 @@
       <c r="P61" s="17">
         <v>472</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="17">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
         <v>68</v>
       </c>
@@ -4176,8 +4329,11 @@
       <c r="P62" s="17">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="17" t="s">
         <v>69</v>
       </c>
@@ -4187,8 +4343,11 @@
       <c r="P63" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
         <v>61</v>
       </c>
@@ -4198,8 +4357,11 @@
       <c r="P64" s="17">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="17" t="s">
         <v>70</v>
       </c>
@@ -4209,8 +4371,11 @@
       <c r="P65" s="17">
         <v>1091</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="17">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="17" t="s">
         <v>42</v>
       </c>
@@ -4220,8 +4385,11 @@
       <c r="P66" s="17">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="17" t="s">
         <v>83</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="P67" s="17">
         <v>657</v>
       </c>
-    </row>
-    <row r="68" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="17">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>85</v>
       </c>
@@ -4242,8 +4413,11 @@
       <c r="P68" s="17">
         <v>2223</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="17">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="17" t="s">
         <v>69</v>
       </c>
@@ -4253,8 +4427,11 @@
       <c r="P69" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="26" t="s">
         <v>84</v>
       </c>
@@ -4264,8 +4441,11 @@
       <c r="P70" s="26">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="17" t="s">
         <v>71</v>
       </c>
@@ -4277,9 +4457,13 @@
         <f>SUM(P60:P70)</f>
         <v>5887</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="17">
+        <f>SUM(Q60:Q70)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="17" t="s">
         <v>72</v>
       </c>
@@ -4289,8 +4473,11 @@
       <c r="P73" s="17">
         <v>4259</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="17">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="17" t="s">
         <v>73</v>
       </c>
@@ -4302,8 +4489,12 @@
         <f>P73+P71</f>
         <v>10146</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="17">
+        <f>Q73+Q71</f>
+        <v>10553</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
@@ -4312,8 +4503,12 @@
         <f>P58-P71</f>
         <v>4259</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="17">
+        <f>Q58-Q71</f>
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
@@ -4321,8 +4516,12 @@
         <f>P76/P19</f>
         <v>21.299348048910705</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="1">
+        <f>Q76/Q19</f>
+        <v>22.983936227826977</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
@@ -4334,8 +4533,12 @@
         <f>+P49+P55+P56</f>
         <v>7329</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="17">
+        <f t="shared" ref="Q79" si="30">+Q49+Q55+Q56</f>
+        <v>7684</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
@@ -4347,6 +4550,10 @@
         <f>+P60+P70</f>
         <v>1370</v>
       </c>
+      <c r="Q80" s="17">
+        <f t="shared" ref="Q80" si="31">+Q60+Q70</f>
+        <v>1362</v>
+      </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
@@ -4360,15 +4567,47 @@
         <f>P79-P80</f>
         <v>5959</v>
       </c>
+      <c r="Q81" s="17">
+        <f t="shared" ref="Q81" si="32">Q79-Q80</f>
+        <v>6322</v>
+      </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+      <c r="N83" s="1">
+        <v>187.91</v>
+      </c>
+      <c r="O83" s="1">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="P83" s="1">
+        <v>313.79000000000002</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>368.53</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="N84" s="17">
+        <f>+N83*N19</f>
+        <v>36592.14724464</v>
+      </c>
+      <c r="O84" s="17">
+        <f>+O83*O19</f>
+        <v>52258.91783839999</v>
+      </c>
+      <c r="P84" s="17">
+        <f>+P83*P19</f>
+        <v>62745.18858188</v>
+      </c>
+      <c r="Q84" s="17">
+        <f>+Q83*Q19</f>
+        <v>74286.644075039992</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.2">
@@ -4376,9 +4615,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="2:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="53" t="s">
         <v>77</v>
+      </c>
+      <c r="P87" s="53">
+        <f>+P83/P77</f>
+        <v>14.73237581166471</v>
+      </c>
+      <c r="Q87" s="53">
+        <f>+Q83/Q77</f>
+        <v>16.03424219189294</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.2">
@@ -4432,6 +4679,9 @@
         <f>703-O95</f>
         <v>492</v>
       </c>
+      <c r="Q95" s="1">
+        <v>715</v>
+      </c>
       <c r="Y95" s="1">
         <v>361</v>
       </c>
@@ -4468,6 +4718,9 @@
         <f>7-O96</f>
         <v>2</v>
       </c>
+      <c r="Q96" s="1">
+        <v>4</v>
+      </c>
       <c r="Y96" s="1">
         <v>85</v>
       </c>
@@ -4483,28 +4736,32 @@
         <v>110</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" ref="K97:P97" si="12">K95-K96</f>
+        <f t="shared" ref="K97:Q97" si="33">K95-K96</f>
         <v>57</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>210</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>396</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>206</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>490</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="33"/>
+        <v>711</v>
       </c>
       <c r="Y97" s="1">
         <f>Y95-Y96</f>
@@ -4524,28 +4781,32 @@
         <v>113</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" ref="K99:P99" si="13">K97/K19</f>
+        <f t="shared" ref="K99:Q99" si="34">K97/K19</f>
         <v>0.29447858541910876</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>5.6578504052831401E-2</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>1.0775766796766262</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>2.0335609031771122</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>1.0402702973702533</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>2.4505002451200388</v>
+      </c>
+      <c r="Q99" s="1">
+        <f t="shared" si="34"/>
+        <v>3.5272131789304941</v>
       </c>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.2">

--- a/$SPOT.xlsx
+++ b/$SPOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C9EF5-FE6C-4855-961E-C355102DE885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F58DF-B815-4C7B-B779-92634D463ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1260" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{1B36FFFD-D458-4A57-865C-CCAC07CF1B21}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
     <t>$SPOT</t>
   </si>
@@ -438,6 +438,15 @@
   </si>
   <si>
     <t>Employees Y/Y</t>
+  </si>
+  <si>
+    <t>EUR - USD</t>
+  </si>
+  <si>
+    <t>"The year of monetisation" - Daniel Ek. Announcement soon on "expanding video" Q324 earnings call</t>
+  </si>
+  <si>
+    <t>"Superpremium" tier is in consideration which has appeal to labels and customers according to Ek.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -766,6 +775,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -862,7 +874,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1226,7 +1238,7 @@
   <dimension ref="A2:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D38"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,8 +1308,12 @@
         <f>$C$30</f>
         <v>Q324</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="22">
+        <v>45597</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1318,7 +1334,9 @@
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="54" t="s">
+        <v>138</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1831,7 +1849,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="50">
-        <f>C6/('Financial Model'!Q99*[1]Currencies!$C$4)</f>
+        <f>C6/('Financial Model'!Q100*[1]Currencies!$C$4)</f>
         <v>117.04538845662525</v>
       </c>
       <c r="D40" s="51"/>
@@ -1867,13 +1885,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D2AD3C-DB9E-4895-A895-31060AA5F6CC}">
-  <dimension ref="B1:AH100"/>
+  <dimension ref="B1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N87" sqref="N87"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4001,6 +4019,9 @@
       <c r="P36" s="1">
         <v>4.62</v>
       </c>
+      <c r="Q36" s="1">
+        <v>4.71</v>
+      </c>
       <c r="Y36" s="1">
         <v>4.29</v>
       </c>
@@ -4615,202 +4636,207 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="53" t="s">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P87" s="53">
+      <c r="P88" s="53">
         <f>+P83/P77</f>
         <v>14.73237581166471</v>
       </c>
-      <c r="Q87" s="53">
+      <c r="Q88" s="53">
         <f>+Q83/Q77</f>
         <v>16.03424219189294</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B94" s="30" t="s">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B95" s="30" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K95" s="1">
-        <v>59</v>
-      </c>
-      <c r="L95" s="1">
-        <f>72-K95</f>
-        <v>13</v>
-      </c>
-      <c r="M95" s="1">
-        <f>283-SUM(K95:L95)</f>
-        <v>211</v>
-      </c>
-      <c r="N95" s="1">
-        <f>AA95-SUM(K95:M95)</f>
-        <v>397</v>
-      </c>
-      <c r="O95" s="1">
-        <v>211</v>
-      </c>
-      <c r="P95" s="1">
-        <f>703-O95</f>
-        <v>492</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>715</v>
-      </c>
-      <c r="Y95" s="1">
-        <v>361</v>
-      </c>
-      <c r="Z95" s="1">
-        <v>46</v>
-      </c>
-      <c r="AA95" s="1">
-        <v>680</v>
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K96" s="1">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="L96" s="1">
-        <f>4-K96</f>
-        <v>2</v>
+        <f>72-K96</f>
+        <v>13</v>
       </c>
       <c r="M96" s="1">
-        <f>5-SUM(K96:L96)</f>
-        <v>1</v>
+        <f>283-SUM(K96:L96)</f>
+        <v>211</v>
       </c>
       <c r="N96" s="1">
         <f>AA96-SUM(K96:M96)</f>
-        <v>1</v>
+        <v>397</v>
       </c>
       <c r="O96" s="1">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="P96" s="1">
-        <f>7-O96</f>
-        <v>2</v>
+        <f>703-O96</f>
+        <v>492</v>
       </c>
       <c r="Q96" s="1">
-        <v>4</v>
+        <v>715</v>
       </c>
       <c r="Y96" s="1">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="Z96" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AA96" s="1">
-        <v>6</v>
+        <v>680</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1">
+        <f>4-K97</f>
+        <v>2</v>
+      </c>
+      <c r="M97" s="1">
+        <f>5-SUM(K97:L97)</f>
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <f>AA97-SUM(K97:M97)</f>
+        <v>1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>5</v>
+      </c>
+      <c r="P97" s="1">
+        <f>7-O97</f>
+        <v>2</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>85</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K97" s="1">
-        <f t="shared" ref="K97:Q97" si="33">K95-K96</f>
+      <c r="K98" s="1">
+        <f t="shared" ref="K98:Q98" si="33">K96-K97</f>
         <v>57</v>
       </c>
-      <c r="L97" s="1">
+      <c r="L98" s="1">
         <f t="shared" si="33"/>
         <v>11</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M98" s="1">
         <f t="shared" si="33"/>
         <v>210</v>
       </c>
-      <c r="N97" s="1">
+      <c r="N98" s="1">
         <f t="shared" si="33"/>
         <v>396</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O98" s="1">
         <f t="shared" si="33"/>
         <v>206</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P98" s="1">
         <f t="shared" si="33"/>
         <v>490</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q98" s="1">
         <f t="shared" si="33"/>
         <v>711</v>
       </c>
-      <c r="Y97" s="1">
-        <f>Y95-Y96</f>
+      <c r="Y98" s="1">
+        <f>Y96-Y97</f>
         <v>276</v>
       </c>
-      <c r="Z97" s="1">
-        <f>Z95-Z96</f>
+      <c r="Z98" s="1">
+        <f>Z96-Z97</f>
         <v>21</v>
       </c>
-      <c r="AA97" s="1">
-        <f>AA95-AA96</f>
+      <c r="AA98" s="1">
+        <f>AA96-AA97</f>
         <v>674</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K99" s="1">
-        <f t="shared" ref="K99:Q99" si="34">K97/K19</f>
+      <c r="K100" s="1">
+        <f t="shared" ref="K100:Q100" si="34">K98/K19</f>
         <v>0.29447858541910876</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <f t="shared" si="34"/>
         <v>5.6578504052831401E-2</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M100" s="1">
         <f t="shared" si="34"/>
         <v>1.0775766796766262</v>
       </c>
-      <c r="N99" s="1">
+      <c r="N100" s="1">
         <f t="shared" si="34"/>
         <v>2.0335609031771122</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O100" s="1">
         <f t="shared" si="34"/>
         <v>1.0402702973702533</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P100" s="1">
         <f t="shared" si="34"/>
         <v>2.4505002451200388</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q100" s="1">
         <f t="shared" si="34"/>
         <v>3.5272131789304941</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4839,7 +4865,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/$SPOT.xlsx
+++ b/$SPOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F58DF-B815-4C7B-B779-92634D463ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07CCB2-2D0F-423C-965D-E4D24425D6C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="1260" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{1B36FFFD-D458-4A57-865C-CCAC07CF1B21}"/>
   </bookViews>
@@ -738,6 +738,28 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,33 +772,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,24 +1257,24 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="G5" s="45" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="G5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="43" t="s">
         <v>138</v>
       </c>
       <c r="I8" s="6"/>
@@ -1471,11 +1471,11 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1495,10 +1495,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="50"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1515,10 +1515,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="50"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1535,10 +1535,10 @@
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1558,10 +1558,10 @@
       <c r="B19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="52"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1601,11 +1601,11 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
       <c r="G22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1622,10 +1622,10 @@
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="50"/>
       <c r="G23" s="13"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1642,10 +1642,10 @@
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="53">
         <v>2006</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="50"/>
       <c r="G24" s="13"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1662,10 +1662,10 @@
       <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="53">
         <v>2018</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="50"/>
       <c r="G25" s="13"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1680,8 +1680,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="50"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1698,11 +1698,11 @@
       <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="53">
         <f>+'Financial Model'!Q30</f>
         <v>640</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="13"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1719,11 +1719,11 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="54">
         <f>+'Financial Model'!AA42</f>
         <v>9123</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="50"/>
       <c r="G28" s="13"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1738,8 +1738,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="50"/>
       <c r="G29" s="13"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1779,8 +1779,8 @@
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="G31" s="14"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -1794,31 +1794,31 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="47">
         <f>C6/('Financial Model'!Q19*[1]Currencies!$C$4)</f>
         <v>2.048085692097604</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="47">
         <f>C8/(SUM('Financial Model'!N8:Q8)*[1]Currencies!$C$4)</f>
         <v>19.19263634517079</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
@@ -1831,11 +1831,11 @@
       <c r="B38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="47">
         <f>C6/(SUM('Financial Model'!N18:Q18)*[1]Currencies!$C$4)</f>
         <v>118.16107002434873</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
@@ -1848,19 +1848,14 @@
       <c r="B40" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="47">
         <f>C6/('Financial Model'!Q100*[1]Currencies!$C$4)</f>
         <v>117.04538845662525</v>
       </c>
-      <c r="D40" s="51"/>
+      <c r="D40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="G5:Q5"/>
@@ -1877,6 +1872,11 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1891,7 +1891,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1947,7 @@
       <c r="P1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="28" t="s">
         <v>30</v>
       </c>
       <c r="R1" s="21" t="s">
@@ -2072,7 +2072,7 @@
       <c r="P3" s="24">
         <v>45474</v>
       </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="41">
         <v>45608</v>
       </c>
       <c r="AA3" s="32">
@@ -4130,6 +4130,9 @@
       <c r="N46" s="17">
         <v>300</v>
       </c>
+      <c r="O46" s="17">
+        <v>274</v>
+      </c>
       <c r="P46" s="17">
         <v>254</v>
       </c>
@@ -4144,6 +4147,9 @@
       <c r="N47" s="17">
         <v>247</v>
       </c>
+      <c r="O47" s="17">
+        <v>224</v>
+      </c>
       <c r="P47" s="17">
         <v>211</v>
       </c>
@@ -4159,6 +4165,10 @@
         <f>1137+84</f>
         <v>1221</v>
       </c>
+      <c r="O48" s="17">
+        <f>1159+76</f>
+        <v>1235</v>
+      </c>
       <c r="P48" s="17">
         <f>1167+68</f>
         <v>1235</v>
@@ -4175,6 +4185,9 @@
       <c r="N49" s="26">
         <v>1215</v>
       </c>
+      <c r="O49" s="26">
+        <v>1534</v>
+      </c>
       <c r="P49" s="26">
         <v>1931</v>
       </c>
@@ -4189,6 +4202,9 @@
       <c r="N50" s="17">
         <v>75</v>
       </c>
+      <c r="O50" s="17">
+        <v>72</v>
+      </c>
       <c r="P50" s="17">
         <v>70</v>
       </c>
@@ -4203,6 +4219,9 @@
       <c r="N51" s="17">
         <v>0</v>
       </c>
+      <c r="O51" s="17">
+        <v>51</v>
+      </c>
       <c r="P51" s="17">
         <v>52</v>
       </c>
@@ -4217,6 +4236,9 @@
       <c r="N52" s="17">
         <v>28</v>
       </c>
+      <c r="O52" s="17">
+        <v>41</v>
+      </c>
       <c r="P52" s="17">
         <v>49</v>
       </c>
@@ -4231,6 +4253,9 @@
       <c r="N53" s="17">
         <v>858</v>
       </c>
+      <c r="O53" s="17">
+        <v>777</v>
+      </c>
       <c r="P53" s="17">
         <v>753</v>
       </c>
@@ -4245,6 +4270,9 @@
       <c r="N54" s="17">
         <v>20</v>
       </c>
+      <c r="O54" s="17">
+        <v>21</v>
+      </c>
       <c r="P54" s="17">
         <v>35</v>
       </c>
@@ -4259,6 +4287,9 @@
       <c r="N55" s="26">
         <v>1100</v>
       </c>
+      <c r="O55" s="26">
+        <v>1220</v>
+      </c>
       <c r="P55" s="26">
         <v>1344</v>
       </c>
@@ -4273,6 +4304,9 @@
       <c r="N56" s="26">
         <v>3114</v>
       </c>
+      <c r="O56" s="26">
+        <v>3451</v>
+      </c>
       <c r="P56" s="26">
         <v>4054</v>
       </c>
@@ -4287,6 +4321,9 @@
       <c r="N57" s="17">
         <v>168</v>
       </c>
+      <c r="O57" s="17">
+        <v>175</v>
+      </c>
       <c r="P57" s="17">
         <v>158</v>
       </c>
@@ -4301,6 +4338,10 @@
       <c r="N58" s="17">
         <f>SUM(N46:N57)</f>
         <v>8346</v>
+      </c>
+      <c r="O58" s="17">
+        <f>SUM(O46:O57)</f>
+        <v>9075</v>
       </c>
       <c r="P58" s="17">
         <f>SUM(P46:P57)</f>
@@ -4319,6 +4360,9 @@
       <c r="N60" s="26">
         <v>1203</v>
       </c>
+      <c r="O60" s="26">
+        <v>1270</v>
+      </c>
       <c r="P60" s="26">
         <v>1323</v>
       </c>
@@ -4333,6 +4377,9 @@
       <c r="N61" s="17">
         <v>493</v>
       </c>
+      <c r="O61" s="17">
+        <v>493</v>
+      </c>
       <c r="P61" s="17">
         <v>472</v>
       </c>
@@ -4347,6 +4394,9 @@
       <c r="N62" s="17">
         <v>26</v>
       </c>
+      <c r="O62" s="17">
+        <v>17</v>
+      </c>
       <c r="P62" s="17">
         <v>11</v>
       </c>
@@ -4361,6 +4411,9 @@
       <c r="N63" s="17">
         <v>3</v>
       </c>
+      <c r="O63" s="17">
+        <v>3</v>
+      </c>
       <c r="P63" s="17">
         <v>3</v>
       </c>
@@ -4375,6 +4428,9 @@
       <c r="N64" s="17">
         <v>8</v>
       </c>
+      <c r="O64" s="17">
+        <v>17</v>
+      </c>
       <c r="P64" s="17">
         <v>19</v>
       </c>
@@ -4389,6 +4445,9 @@
       <c r="N65" s="17">
         <v>978</v>
       </c>
+      <c r="O65" s="17">
+        <v>1048</v>
+      </c>
       <c r="P65" s="17">
         <v>1091</v>
       </c>
@@ -4403,6 +4462,9 @@
       <c r="N66" s="17">
         <v>12</v>
       </c>
+      <c r="O66" s="17">
+        <v>14</v>
+      </c>
       <c r="P66" s="17">
         <v>17</v>
       </c>
@@ -4417,6 +4479,9 @@
       <c r="N67" s="17">
         <v>622</v>
       </c>
+      <c r="O67" s="17">
+        <v>634</v>
+      </c>
       <c r="P67" s="17">
         <v>657</v>
       </c>
@@ -4431,6 +4496,9 @@
       <c r="N68" s="17">
         <v>2440</v>
       </c>
+      <c r="O68" s="17">
+        <v>2228</v>
+      </c>
       <c r="P68" s="17">
         <v>2223</v>
       </c>
@@ -4445,6 +4513,9 @@
       <c r="N69" s="17">
         <v>21</v>
       </c>
+      <c r="O69" s="17">
+        <v>20</v>
+      </c>
       <c r="P69" s="17">
         <v>24</v>
       </c>
@@ -4459,6 +4530,9 @@
       <c r="N70" s="26">
         <v>17</v>
       </c>
+      <c r="O70" s="26">
+        <v>22</v>
+      </c>
       <c r="P70" s="26">
         <v>47</v>
       </c>
@@ -4473,6 +4547,10 @@
       <c r="N71" s="17">
         <f>SUM(N60:N70)</f>
         <v>5823</v>
+      </c>
+      <c r="O71" s="17">
+        <f>SUM(O60:O70)</f>
+        <v>5766</v>
       </c>
       <c r="P71" s="17">
         <f>SUM(P60:P70)</f>
@@ -4491,6 +4569,9 @@
       <c r="N73" s="17">
         <v>2523</v>
       </c>
+      <c r="O73" s="17">
+        <v>3309</v>
+      </c>
       <c r="P73" s="17">
         <v>4259</v>
       </c>
@@ -4506,6 +4587,10 @@
         <f>N73+N71</f>
         <v>8346</v>
       </c>
+      <c r="O74" s="17">
+        <f>O73+O71</f>
+        <v>9075</v>
+      </c>
       <c r="P74" s="17">
         <f>P73+P71</f>
         <v>10146</v>
@@ -4520,6 +4605,10 @@
         <v>74</v>
       </c>
       <c r="N76" s="17"/>
+      <c r="O76" s="17">
+        <f>O58-O71</f>
+        <v>3309</v>
+      </c>
       <c r="P76" s="17">
         <f>P58-P71</f>
         <v>4259</v>
@@ -4533,6 +4622,10 @@
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="O77" s="1">
+        <f>O76/O19</f>
+        <v>16.709972883486252</v>
+      </c>
       <c r="P77" s="1">
         <f>P76/P19</f>
         <v>21.299348048910705</v>
@@ -4550,6 +4643,10 @@
         <f>+N49+N55+N56</f>
         <v>5429</v>
       </c>
+      <c r="O79" s="17">
+        <f>+O49+O55+O56</f>
+        <v>6205</v>
+      </c>
       <c r="P79" s="17">
         <f>+P49+P55+P56</f>
         <v>7329</v>
@@ -4567,6 +4664,10 @@
         <f>+N60+N70</f>
         <v>1220</v>
       </c>
+      <c r="O80" s="17">
+        <f>+O60+O70</f>
+        <v>1292</v>
+      </c>
       <c r="P80" s="17">
         <f>+P60+P70</f>
         <v>1370</v>
@@ -4584,6 +4685,10 @@
         <f>N79-N80</f>
         <v>4209</v>
       </c>
+      <c r="O81" s="17">
+        <f>O79-O80</f>
+        <v>4913</v>
+      </c>
       <c r="P81" s="17">
         <f>P79-P80</f>
         <v>5959</v>
@@ -4641,15 +4746,19 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="2:27" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="53" t="s">
+    <row r="88" spans="2:27" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="P88" s="53">
+      <c r="O88" s="42">
+        <f>+O83/O77</f>
+        <v>15.79296398863705</v>
+      </c>
+      <c r="P88" s="42">
         <f>+P83/P77</f>
         <v>14.73237581166471</v>
       </c>
-      <c r="Q88" s="53">
+      <c r="Q88" s="42">
         <f>+Q83/Q77</f>
         <v>16.03424219189294</v>
       </c>
@@ -4850,13 +4959,14 @@
     <hyperlink ref="H1" r:id="rId6" xr:uid="{D41EEB08-11F5-44A0-AE7C-6D2A90771DA1}"/>
     <hyperlink ref="G1" r:id="rId7" xr:uid="{B826FA8F-1C74-496D-8D94-CD8D3D7C295B}"/>
     <hyperlink ref="E1" r:id="rId8" xr:uid="{8F38F335-CB1A-4AF1-82E9-A4C1724F4702}"/>
+    <hyperlink ref="Q1" r:id="rId9" xr:uid="{ABB2003F-1E0D-4DE3-B941-A1C9955BCB3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId10"/>
   <ignoredErrors>
     <ignoredError sqref="N8:N17 J6:J8 J12 J15 J17 N31:N36 F8:F19 J31:J35" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
